--- a/documentos/LSD-ARMADO-TXT-Conceptos.xlsx
+++ b/documentos/LSD-ARMADO-TXT-Conceptos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\datos\Mis documentos\GitHub\LibroSueldoDigital\documentos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948DA3C2-3641-4BAD-92E0-07EC1AF3390C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="285" windowWidth="14880" windowHeight="7560"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Armado txt" sheetId="2" r:id="rId1"/>
@@ -15,17 +21,26 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Armado txt'!$A$7:$V$105</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Conceptos AFIP'!$3:$4</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author xml:space="preserve"> </author>
   </authors>
   <commentList>
-    <comment ref="C105" authorId="0">
+    <comment ref="C105" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -39,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D105" authorId="0">
+    <comment ref="D105" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C106" authorId="0">
+    <comment ref="C106" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D106" authorId="0">
+    <comment ref="D106" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -81,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C107" authorId="0">
+    <comment ref="C107" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D107" authorId="0">
+    <comment ref="D107" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C108" authorId="0">
+    <comment ref="C108" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D108" authorId="0">
+    <comment ref="D108" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C109" authorId="0">
+    <comment ref="C109" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D109" authorId="0">
+    <comment ref="D109" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D110" authorId="0">
+    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D111" authorId="0">
+    <comment ref="D111" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -193,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D112" authorId="0">
+    <comment ref="D112" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -207,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D113" authorId="0">
+    <comment ref="D113" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -221,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C114" authorId="0">
+    <comment ref="C114" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -235,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C115" authorId="0">
+    <comment ref="C115" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -254,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="185">
   <si>
     <t>Aportes Sistema Previsional Argentino - SIPA</t>
   </si>
@@ -810,12 +825,6 @@
     </r>
   </si>
   <si>
-    <t>R00001</t>
-  </si>
-  <si>
-    <t>Sueldo Básico</t>
-  </si>
-  <si>
     <t>LIBRO DE SUELDOS DIGITAL - AFIP</t>
   </si>
   <si>
@@ -948,8 +957,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1718,6 +1727,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1735,6 +1748,12 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1787,21 +1806,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1837,6 +1846,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1883,7 +1900,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1915,9 +1932,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1949,6 +1984,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2124,12 +2177,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V519"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" style="52" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" style="52" customWidth="1"/>
@@ -2141,16 +2196,16 @@
     <col min="23" max="16384" width="11.42578125" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="44" customFormat="1" ht="19.5" thickBot="1">
+    <row r="1" spans="1:22" s="44" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
       <c r="D1" s="52"/>
       <c r="E1" s="52"/>
       <c r="F1" s="52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G1" s="52"/>
       <c r="H1" s="52"/>
@@ -2169,16 +2224,16 @@
       <c r="U1" s="67"/>
       <c r="V1" s="67"/>
     </row>
-    <row r="2" spans="1:22" s="44" customFormat="1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:22" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="52"/>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G2" s="52"/>
       <c r="H2" s="52"/>
@@ -2192,25 +2247,25 @@
       <c r="P2" s="52"/>
       <c r="Q2" s="52"/>
       <c r="R2" s="52"/>
-      <c r="S2" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="T2" s="96"/>
+      <c r="S2" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="T2" s="73"/>
       <c r="U2" s="67"/>
       <c r="V2" s="67"/>
     </row>
-    <row r="3" spans="1:22" s="44" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:22" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
-      <c r="E3" s="99" t="s">
-        <v>183</v>
+      <c r="E3" s="82" t="s">
+        <v>181</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
@@ -2224,41 +2279,41 @@
       <c r="P3" s="52"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
-      <c r="S3" s="97" t="s">
-        <v>182</v>
-      </c>
-      <c r="T3" s="98"/>
+      <c r="S3" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="T3" s="75"/>
       <c r="U3" s="67"/>
       <c r="V3" s="67"/>
     </row>
-    <row r="4" spans="1:22" s="44" customFormat="1" ht="16.5" thickBot="1">
-      <c r="B4" s="76" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="75"/>
+    <row r="4" spans="1:22" s="44" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="79"/>
       <c r="U4" s="67"/>
       <c r="V4" s="67"/>
     </row>
-    <row r="5" spans="1:22" s="45" customFormat="1" ht="60">
+    <row r="5" spans="1:22" s="45" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>166</v>
       </c>
@@ -2314,19 +2369,19 @@
         <v>13</v>
       </c>
       <c r="S5" s="56" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="T5" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="U5" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="V5" s="73"/>
-    </row>
-    <row r="6" spans="1:22" s="45" customFormat="1" ht="12">
+      <c r="U5" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="V5" s="77"/>
+    </row>
+    <row r="6" spans="1:22" s="45" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B6" s="63">
         <v>6</v>
@@ -2388,7 +2443,7 @@
       <c r="U6" s="53"/>
       <c r="V6" s="53"/>
     </row>
-    <row r="7" spans="1:22" s="46" customFormat="1" ht="48.75" thickBot="1">
+    <row r="7" spans="1:22" s="46" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
         <v>19</v>
       </c>
@@ -2456,18 +2511,18 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="44" customFormat="1">
+    <row r="8" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="27">
         <v>110000</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>170</v>
+      <c r="C8" s="44">
+        <v>1</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="E8" s="44">
         <v>1</v>
@@ -2519,14 +2574,14 @@
       </c>
       <c r="U8" s="70" t="str">
         <f>B8&amp;C8&amp;REPT(" ",10-LEN(C8))&amp;D8&amp;REPT(" ",150-LEN(D8))&amp;E8&amp;F8&amp;G8&amp;H8&amp;I8&amp;J8&amp;K8&amp;L8&amp;M8&amp;N8&amp;O8&amp;" "&amp;P8&amp;" "&amp;Q8&amp;" "&amp;R8&amp;S8&amp;" "&amp;T8&amp;REPT(" ",9)</f>
-        <v xml:space="preserve">110000R00001    Sueldo Básico                                                                                                                                         11111111111 1 1 10 0         </v>
+        <v xml:space="preserve">1100001         Sueldo                                                                                                                                                11111111111 1 1 10 0         </v>
       </c>
       <c r="V8" s="71">
         <f t="shared" ref="V8" si="0">LEN(U8)</f>
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="44" customFormat="1">
+    <row r="9" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="66"/>
       <c r="U9" s="70" t="str">
         <f t="shared" ref="U9:U72" si="1">B9&amp;C9&amp;REPT(" ",10-LEN(C9))&amp;D9&amp;REPT(" ",150-LEN(D9))&amp;E9&amp;F9&amp;G9&amp;H9&amp;I9&amp;J9&amp;K9&amp;L9&amp;M9&amp;N9&amp;O9&amp;" "&amp;P9&amp;" "&amp;Q9&amp;" "&amp;R9&amp;S9&amp;" "&amp;T9&amp;REPT(" ",9)</f>
@@ -2537,7 +2592,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="44" customFormat="1">
+    <row r="10" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="66"/>
       <c r="U10" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2548,7 +2603,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="44" customFormat="1">
+    <row r="11" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="66"/>
       <c r="U11" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2559,7 +2614,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="44" customFormat="1">
+    <row r="12" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="66"/>
       <c r="U12" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2570,7 +2625,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="44" customFormat="1">
+    <row r="13" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="66"/>
       <c r="U13" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2581,7 +2636,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="44" customFormat="1">
+    <row r="14" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="66"/>
       <c r="U14" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2592,7 +2647,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="44" customFormat="1">
+    <row r="15" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="66"/>
       <c r="U15" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2603,7 +2658,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="44" customFormat="1">
+    <row r="16" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="66"/>
       <c r="U16" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2614,7 +2669,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="44" customFormat="1">
+    <row r="17" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="66"/>
       <c r="U17" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2625,7 +2680,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="44" customFormat="1">
+    <row r="18" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="66"/>
       <c r="U18" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2636,7 +2691,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="44" customFormat="1">
+    <row r="19" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="66"/>
       <c r="U19" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2647,7 +2702,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="44" customFormat="1">
+    <row r="20" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="66"/>
       <c r="U20" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2658,7 +2713,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="44" customFormat="1">
+    <row r="21" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="66"/>
       <c r="U21" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2669,7 +2724,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="44" customFormat="1">
+    <row r="22" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="66"/>
       <c r="U22" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2680,7 +2735,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="44" customFormat="1">
+    <row r="23" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="66"/>
       <c r="U23" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2691,7 +2746,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="44" customFormat="1">
+    <row r="24" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="66"/>
       <c r="U24" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2702,7 +2757,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="44" customFormat="1">
+    <row r="25" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="66"/>
       <c r="U25" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2713,7 +2768,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="44" customFormat="1">
+    <row r="26" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="66"/>
       <c r="U26" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2724,7 +2779,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="44" customFormat="1">
+    <row r="27" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="66"/>
       <c r="U27" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2735,7 +2790,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="44" customFormat="1">
+    <row r="28" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="66"/>
       <c r="U28" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2746,7 +2801,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="44" customFormat="1">
+    <row r="29" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="66"/>
       <c r="U29" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2757,7 +2812,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="44" customFormat="1">
+    <row r="30" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="66"/>
       <c r="U30" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2768,7 +2823,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="44" customFormat="1">
+    <row r="31" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="66"/>
       <c r="U31" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2779,7 +2834,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="44" customFormat="1">
+    <row r="32" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="66"/>
       <c r="U32" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2790,7 +2845,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="44" customFormat="1">
+    <row r="33" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="66"/>
       <c r="U33" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2801,7 +2856,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="44" customFormat="1">
+    <row r="34" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="66"/>
       <c r="U34" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2812,7 +2867,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="44" customFormat="1">
+    <row r="35" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="66"/>
       <c r="U35" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2823,7 +2878,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="44" customFormat="1">
+    <row r="36" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="66"/>
       <c r="U36" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2834,7 +2889,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="44" customFormat="1">
+    <row r="37" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="66"/>
       <c r="U37" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2845,7 +2900,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:22" s="44" customFormat="1">
+    <row r="38" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="66"/>
       <c r="U38" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2856,7 +2911,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:22" s="44" customFormat="1">
+    <row r="39" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="66"/>
       <c r="U39" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2867,7 +2922,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:22" s="44" customFormat="1">
+    <row r="40" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="66"/>
       <c r="U40" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2878,7 +2933,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:22" s="44" customFormat="1">
+    <row r="41" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="66"/>
       <c r="U41" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2889,7 +2944,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:22" s="44" customFormat="1">
+    <row r="42" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="66"/>
       <c r="U42" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2900,7 +2955,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="44" customFormat="1">
+    <row r="43" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="66"/>
       <c r="U43" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2911,7 +2966,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:22" s="44" customFormat="1">
+    <row r="44" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="66"/>
       <c r="U44" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2922,7 +2977,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:22" s="44" customFormat="1">
+    <row r="45" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="66"/>
       <c r="U45" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2933,7 +2988,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:22" s="44" customFormat="1">
+    <row r="46" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="66"/>
       <c r="U46" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2944,7 +2999,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:22" s="44" customFormat="1">
+    <row r="47" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="66"/>
       <c r="U47" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2955,7 +3010,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:22" s="44" customFormat="1">
+    <row r="48" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="66"/>
       <c r="U48" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2966,7 +3021,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:22" s="44" customFormat="1">
+    <row r="49" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="66"/>
       <c r="U49" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2977,7 +3032,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:22" s="44" customFormat="1">
+    <row r="50" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="66"/>
       <c r="U50" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2988,7 +3043,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:22" s="44" customFormat="1">
+    <row r="51" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="66"/>
       <c r="U51" s="70" t="str">
         <f t="shared" si="1"/>
@@ -2999,7 +3054,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:22" s="44" customFormat="1">
+    <row r="52" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="66"/>
       <c r="U52" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3010,7 +3065,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:22" s="44" customFormat="1">
+    <row r="53" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="66"/>
       <c r="U53" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3021,7 +3076,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="1:22" s="44" customFormat="1">
+    <row r="54" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="66"/>
       <c r="U54" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3032,7 +3087,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:22" s="44" customFormat="1">
+    <row r="55" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="66"/>
       <c r="U55" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3043,7 +3098,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:22" s="44" customFormat="1">
+    <row r="56" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="66"/>
       <c r="U56" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3054,7 +3109,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:22" s="44" customFormat="1">
+    <row r="57" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="66"/>
       <c r="U57" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3065,7 +3120,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:22" s="44" customFormat="1">
+    <row r="58" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="66"/>
       <c r="U58" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3076,7 +3131,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:22" s="44" customFormat="1">
+    <row r="59" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="66"/>
       <c r="U59" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3087,7 +3142,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:22" s="44" customFormat="1">
+    <row r="60" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="66"/>
       <c r="U60" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3098,7 +3153,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:22" s="44" customFormat="1">
+    <row r="61" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="66"/>
       <c r="U61" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3109,7 +3164,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:22" s="44" customFormat="1">
+    <row r="62" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="66"/>
       <c r="U62" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3120,7 +3175,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:22" s="44" customFormat="1">
+    <row r="63" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="66"/>
       <c r="U63" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3131,7 +3186,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:22" s="44" customFormat="1">
+    <row r="64" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="66"/>
       <c r="U64" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3142,7 +3197,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:22" s="44" customFormat="1">
+    <row r="65" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="66"/>
       <c r="U65" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3153,7 +3208,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="1:22" s="44" customFormat="1">
+    <row r="66" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="66"/>
       <c r="U66" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3164,7 +3219,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="67" spans="1:22" s="44" customFormat="1">
+    <row r="67" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="66"/>
       <c r="U67" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3175,7 +3230,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="1:22" s="44" customFormat="1">
+    <row r="68" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="66"/>
       <c r="U68" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3186,7 +3241,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="69" spans="1:22" s="44" customFormat="1">
+    <row r="69" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="66"/>
       <c r="U69" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3197,7 +3252,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="1:22" s="44" customFormat="1">
+    <row r="70" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="66"/>
       <c r="U70" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3208,7 +3263,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:22" s="44" customFormat="1">
+    <row r="71" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="66"/>
       <c r="U71" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3219,7 +3274,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:22" s="44" customFormat="1">
+    <row r="72" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="66"/>
       <c r="U72" s="70" t="str">
         <f t="shared" si="1"/>
@@ -3230,7 +3285,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:22" s="44" customFormat="1">
+    <row r="73" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="66"/>
       <c r="U73" s="70" t="str">
         <f t="shared" ref="U73:U136" si="3">B73&amp;C73&amp;REPT(" ",10-LEN(C73))&amp;D73&amp;REPT(" ",150-LEN(D73))&amp;E73&amp;F73&amp;G73&amp;H73&amp;I73&amp;J73&amp;K73&amp;L73&amp;M73&amp;N73&amp;O73&amp;" "&amp;P73&amp;" "&amp;Q73&amp;" "&amp;R73&amp;S73&amp;" "&amp;T73&amp;REPT(" ",9)</f>
@@ -3241,7 +3296,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="1:22" s="44" customFormat="1">
+    <row r="74" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="66"/>
       <c r="U74" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3252,7 +3307,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="75" spans="1:22" s="44" customFormat="1">
+    <row r="75" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="66"/>
       <c r="U75" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3263,7 +3318,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="76" spans="1:22" s="44" customFormat="1">
+    <row r="76" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="66"/>
       <c r="U76" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3274,7 +3329,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="1:22" s="44" customFormat="1">
+    <row r="77" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="66"/>
       <c r="U77" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3285,7 +3340,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="78" spans="1:22" s="44" customFormat="1">
+    <row r="78" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="66"/>
       <c r="U78" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3296,7 +3351,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="79" spans="1:22" s="44" customFormat="1">
+    <row r="79" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="66"/>
       <c r="U79" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3307,7 +3362,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="80" spans="1:22" s="44" customFormat="1">
+    <row r="80" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="66"/>
       <c r="U80" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3318,7 +3373,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:22" s="44" customFormat="1">
+    <row r="81" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="66"/>
       <c r="U81" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3329,7 +3384,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:22" s="44" customFormat="1">
+    <row r="82" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="66"/>
       <c r="U82" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3340,7 +3395,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="1:22" s="44" customFormat="1">
+    <row r="83" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="66"/>
       <c r="U83" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3351,7 +3406,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:22" s="44" customFormat="1">
+    <row r="84" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="66"/>
       <c r="U84" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3362,7 +3417,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:22" s="44" customFormat="1">
+    <row r="85" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="66"/>
       <c r="U85" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3373,7 +3428,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:22" s="44" customFormat="1">
+    <row r="86" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="66"/>
       <c r="U86" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3384,7 +3439,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:22" s="44" customFormat="1">
+    <row r="87" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="66"/>
       <c r="U87" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3395,7 +3450,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:22" s="44" customFormat="1">
+    <row r="88" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="66"/>
       <c r="U88" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3406,7 +3461,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:22" s="44" customFormat="1">
+    <row r="89" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="66"/>
       <c r="U89" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3417,7 +3472,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="1:22" s="44" customFormat="1">
+    <row r="90" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="66"/>
       <c r="U90" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3428,7 +3483,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="91" spans="1:22" s="44" customFormat="1">
+    <row r="91" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="66"/>
       <c r="U91" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3439,7 +3494,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="1:22" s="44" customFormat="1">
+    <row r="92" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="66"/>
       <c r="U92" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3450,7 +3505,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="44" customFormat="1">
+    <row r="93" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="66"/>
       <c r="U93" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3461,7 +3516,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="94" spans="1:22" s="44" customFormat="1">
+    <row r="94" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="66"/>
       <c r="U94" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3472,7 +3527,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="95" spans="1:22" s="44" customFormat="1">
+    <row r="95" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="66"/>
       <c r="U95" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3483,7 +3538,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:22" s="44" customFormat="1">
+    <row r="96" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="66"/>
       <c r="U96" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3494,7 +3549,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="97" spans="1:22" s="44" customFormat="1">
+    <row r="97" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="66"/>
       <c r="U97" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3505,7 +3560,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="98" spans="1:22" s="44" customFormat="1">
+    <row r="98" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="66"/>
       <c r="U98" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3516,7 +3571,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="99" spans="1:22" s="44" customFormat="1">
+    <row r="99" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="66"/>
       <c r="U99" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3527,7 +3582,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="100" spans="1:22" s="44" customFormat="1">
+    <row r="100" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="66"/>
       <c r="U100" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3538,7 +3593,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="101" spans="1:22" s="44" customFormat="1">
+    <row r="101" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="66"/>
       <c r="U101" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3549,7 +3604,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="1:22" s="44" customFormat="1">
+    <row r="102" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="66"/>
       <c r="U102" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3560,7 +3615,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="103" spans="1:22" s="44" customFormat="1">
+    <row r="103" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="66"/>
       <c r="U103" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3571,7 +3626,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="104" spans="1:22" s="44" customFormat="1">
+    <row r="104" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="66"/>
       <c r="U104" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3582,7 +3637,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="105" spans="1:22" s="44" customFormat="1">
+    <row r="105" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="66"/>
       <c r="U105" s="70" t="str">
         <f t="shared" si="3"/>
@@ -3593,7 +3648,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="1:22" s="44" customFormat="1">
+    <row r="106" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="66"/>
       <c r="B106" s="43"/>
       <c r="C106" s="43"/>
@@ -3623,7 +3678,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="107" spans="1:22" s="44" customFormat="1">
+    <row r="107" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="66"/>
       <c r="B107" s="43"/>
       <c r="C107" s="43"/>
@@ -3653,7 +3708,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="1:22" s="44" customFormat="1">
+    <row r="108" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="66"/>
       <c r="B108" s="43"/>
       <c r="C108" s="43"/>
@@ -3683,7 +3738,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="109" spans="1:22" s="44" customFormat="1">
+    <row r="109" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="66"/>
       <c r="B109" s="43"/>
       <c r="C109" s="43"/>
@@ -3713,7 +3768,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="110" spans="1:22" s="44" customFormat="1">
+    <row r="110" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="66"/>
       <c r="B110" s="43"/>
       <c r="C110" s="43"/>
@@ -3743,7 +3798,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="111" spans="1:22" s="44" customFormat="1">
+    <row r="111" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="66"/>
       <c r="B111" s="43"/>
       <c r="C111" s="43"/>
@@ -3773,7 +3828,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="112" spans="1:22" s="44" customFormat="1">
+    <row r="112" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="66"/>
       <c r="B112" s="43"/>
       <c r="C112" s="43"/>
@@ -3803,7 +3858,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="113" spans="1:22" s="44" customFormat="1">
+    <row r="113" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="66"/>
       <c r="B113" s="43"/>
       <c r="C113" s="43"/>
@@ -3833,7 +3888,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="114" spans="1:22" s="44" customFormat="1">
+    <row r="114" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="66"/>
       <c r="B114" s="43"/>
       <c r="C114" s="43"/>
@@ -3863,7 +3918,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="115" spans="1:22" s="44" customFormat="1">
+    <row r="115" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="66"/>
       <c r="B115" s="43"/>
       <c r="C115" s="43"/>
@@ -3893,7 +3948,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:22" s="44" customFormat="1">
+    <row r="116" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="66"/>
       <c r="B116" s="43"/>
       <c r="C116" s="43"/>
@@ -3923,7 +3978,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="117" spans="1:22" s="44" customFormat="1">
+    <row r="117" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="66"/>
       <c r="B117" s="43"/>
       <c r="C117" s="43"/>
@@ -3953,7 +4008,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="118" spans="1:22" s="44" customFormat="1">
+    <row r="118" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="66"/>
       <c r="B118" s="43"/>
       <c r="C118" s="43"/>
@@ -3983,7 +4038,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="119" spans="1:22" s="44" customFormat="1">
+    <row r="119" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="66"/>
       <c r="B119" s="43"/>
       <c r="C119" s="43"/>
@@ -4013,7 +4068,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="120" spans="1:22" s="44" customFormat="1">
+    <row r="120" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="66"/>
       <c r="B120" s="43"/>
       <c r="C120" s="43"/>
@@ -4043,7 +4098,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="121" spans="1:22" s="44" customFormat="1">
+    <row r="121" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="66"/>
       <c r="B121" s="43"/>
       <c r="C121" s="43"/>
@@ -4073,7 +4128,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="122" spans="1:22" s="44" customFormat="1">
+    <row r="122" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="66"/>
       <c r="B122" s="43"/>
       <c r="C122" s="43"/>
@@ -4103,7 +4158,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="123" spans="1:22" s="44" customFormat="1">
+    <row r="123" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="66"/>
       <c r="B123" s="43"/>
       <c r="C123" s="43"/>
@@ -4133,7 +4188,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="124" spans="1:22" s="44" customFormat="1">
+    <row r="124" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="66"/>
       <c r="B124" s="43"/>
       <c r="C124" s="43"/>
@@ -4163,7 +4218,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="1:22" s="44" customFormat="1">
+    <row r="125" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="66"/>
       <c r="B125" s="43"/>
       <c r="C125" s="43"/>
@@ -4193,7 +4248,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="126" spans="1:22" s="44" customFormat="1">
+    <row r="126" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="66"/>
       <c r="B126" s="43"/>
       <c r="C126" s="43"/>
@@ -4223,7 +4278,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="127" spans="1:22" s="44" customFormat="1">
+    <row r="127" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="66"/>
       <c r="B127" s="43"/>
       <c r="C127" s="43"/>
@@ -4253,7 +4308,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="128" spans="1:22" s="44" customFormat="1">
+    <row r="128" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="66"/>
       <c r="B128" s="43"/>
       <c r="C128" s="43"/>
@@ -4283,7 +4338,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="129" spans="1:22" s="44" customFormat="1">
+    <row r="129" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="66"/>
       <c r="B129" s="43"/>
       <c r="C129" s="43"/>
@@ -4313,7 +4368,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="130" spans="1:22" s="44" customFormat="1">
+    <row r="130" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="66"/>
       <c r="B130" s="43"/>
       <c r="C130" s="43"/>
@@ -4343,7 +4398,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="131" spans="1:22" s="44" customFormat="1">
+    <row r="131" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="66"/>
       <c r="B131" s="43"/>
       <c r="C131" s="43"/>
@@ -4373,7 +4428,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="132" spans="1:22" s="44" customFormat="1">
+    <row r="132" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="66"/>
       <c r="B132" s="43"/>
       <c r="C132" s="43"/>
@@ -4403,7 +4458,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="133" spans="1:22" s="44" customFormat="1">
+    <row r="133" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="66"/>
       <c r="B133" s="43"/>
       <c r="C133" s="43"/>
@@ -4433,7 +4488,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="134" spans="1:22" s="44" customFormat="1">
+    <row r="134" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="66"/>
       <c r="B134" s="43"/>
       <c r="C134" s="43"/>
@@ -4463,7 +4518,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="135" spans="1:22" s="44" customFormat="1">
+    <row r="135" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="66"/>
       <c r="B135" s="43"/>
       <c r="C135" s="43"/>
@@ -4493,7 +4548,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="136" spans="1:22" s="44" customFormat="1">
+    <row r="136" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="66"/>
       <c r="B136" s="43"/>
       <c r="C136" s="43"/>
@@ -4523,7 +4578,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="137" spans="1:22" s="44" customFormat="1">
+    <row r="137" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="66"/>
       <c r="B137" s="43"/>
       <c r="C137" s="43"/>
@@ -4553,7 +4608,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="138" spans="1:22" s="44" customFormat="1">
+    <row r="138" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="66"/>
       <c r="B138" s="43"/>
       <c r="C138" s="43"/>
@@ -4583,7 +4638,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="139" spans="1:22" s="44" customFormat="1">
+    <row r="139" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="66"/>
       <c r="B139" s="43"/>
       <c r="C139" s="43"/>
@@ -4613,7 +4668,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="140" spans="1:22" s="44" customFormat="1">
+    <row r="140" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="66"/>
       <c r="B140" s="43"/>
       <c r="C140" s="43"/>
@@ -4643,7 +4698,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="141" spans="1:22" s="44" customFormat="1">
+    <row r="141" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="66"/>
       <c r="B141" s="43"/>
       <c r="C141" s="43"/>
@@ -4673,7 +4728,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="142" spans="1:22" s="44" customFormat="1">
+    <row r="142" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="66"/>
       <c r="B142" s="43"/>
       <c r="C142" s="43"/>
@@ -4703,7 +4758,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="143" spans="1:22" s="44" customFormat="1">
+    <row r="143" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="66"/>
       <c r="B143" s="43"/>
       <c r="C143" s="43"/>
@@ -4733,7 +4788,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="144" spans="1:22" s="44" customFormat="1">
+    <row r="144" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="66"/>
       <c r="B144" s="43"/>
       <c r="C144" s="43"/>
@@ -4763,7 +4818,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="145" spans="1:22" s="44" customFormat="1">
+    <row r="145" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="66"/>
       <c r="B145" s="43"/>
       <c r="C145" s="43"/>
@@ -4793,7 +4848,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="146" spans="1:22" s="44" customFormat="1">
+    <row r="146" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="66"/>
       <c r="B146" s="43"/>
       <c r="C146" s="43"/>
@@ -4823,7 +4878,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="147" spans="1:22" s="44" customFormat="1">
+    <row r="147" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="66"/>
       <c r="B147" s="43"/>
       <c r="C147" s="43"/>
@@ -4853,7 +4908,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="148" spans="1:22" s="44" customFormat="1">
+    <row r="148" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="66"/>
       <c r="B148" s="43"/>
       <c r="C148" s="43"/>
@@ -4883,7 +4938,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="149" spans="1:22" s="44" customFormat="1">
+    <row r="149" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="66"/>
       <c r="B149" s="43"/>
       <c r="C149" s="43"/>
@@ -4913,7 +4968,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="150" spans="1:22" s="44" customFormat="1">
+    <row r="150" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="66"/>
       <c r="B150" s="43"/>
       <c r="C150" s="43"/>
@@ -4943,7 +4998,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="151" spans="1:22" s="44" customFormat="1">
+    <row r="151" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="66"/>
       <c r="B151" s="43"/>
       <c r="C151" s="43"/>
@@ -4973,7 +5028,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="152" spans="1:22" s="44" customFormat="1">
+    <row r="152" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="66"/>
       <c r="B152" s="43"/>
       <c r="C152" s="43"/>
@@ -5003,7 +5058,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="153" spans="1:22" s="44" customFormat="1">
+    <row r="153" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="66"/>
       <c r="B153" s="43"/>
       <c r="C153" s="43"/>
@@ -5033,7 +5088,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="154" spans="1:22" s="44" customFormat="1">
+    <row r="154" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="66"/>
       <c r="B154" s="43"/>
       <c r="C154" s="43"/>
@@ -5063,7 +5118,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="155" spans="1:22" s="44" customFormat="1">
+    <row r="155" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="66"/>
       <c r="B155" s="43"/>
       <c r="C155" s="43"/>
@@ -5093,7 +5148,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="156" spans="1:22" s="44" customFormat="1">
+    <row r="156" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="66"/>
       <c r="B156" s="43"/>
       <c r="C156" s="43"/>
@@ -5123,7 +5178,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="157" spans="1:22" s="44" customFormat="1">
+    <row r="157" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="66"/>
       <c r="B157" s="43"/>
       <c r="C157" s="43"/>
@@ -5153,7 +5208,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="158" spans="1:22" s="44" customFormat="1">
+    <row r="158" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="66"/>
       <c r="B158" s="43"/>
       <c r="C158" s="43"/>
@@ -5183,7 +5238,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="159" spans="1:22" s="44" customFormat="1">
+    <row r="159" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="66"/>
       <c r="B159" s="43"/>
       <c r="C159" s="43"/>
@@ -5213,7 +5268,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="160" spans="1:22" s="44" customFormat="1">
+    <row r="160" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="66"/>
       <c r="B160" s="43"/>
       <c r="C160" s="43"/>
@@ -5243,7 +5298,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="161" spans="1:22" s="44" customFormat="1">
+    <row r="161" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="66"/>
       <c r="B161" s="43"/>
       <c r="C161" s="43"/>
@@ -5273,7 +5328,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="162" spans="1:22" s="44" customFormat="1">
+    <row r="162" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="66"/>
       <c r="B162" s="43"/>
       <c r="C162" s="43"/>
@@ -5303,7 +5358,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="163" spans="1:22" s="44" customFormat="1">
+    <row r="163" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="66"/>
       <c r="B163" s="43"/>
       <c r="C163" s="43"/>
@@ -5333,7 +5388,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="164" spans="1:22" s="44" customFormat="1">
+    <row r="164" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="66"/>
       <c r="B164" s="43"/>
       <c r="C164" s="43"/>
@@ -5363,7 +5418,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="165" spans="1:22" s="44" customFormat="1">
+    <row r="165" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="66"/>
       <c r="B165" s="43"/>
       <c r="C165" s="43"/>
@@ -5393,7 +5448,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="166" spans="1:22" s="44" customFormat="1">
+    <row r="166" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="66"/>
       <c r="B166" s="43"/>
       <c r="C166" s="43"/>
@@ -5423,7 +5478,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="167" spans="1:22" s="44" customFormat="1">
+    <row r="167" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="66"/>
       <c r="B167" s="43"/>
       <c r="C167" s="43"/>
@@ -5453,7 +5508,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="168" spans="1:22" s="44" customFormat="1">
+    <row r="168" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="66"/>
       <c r="B168" s="43"/>
       <c r="C168" s="43"/>
@@ -5483,7 +5538,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="169" spans="1:22" s="44" customFormat="1">
+    <row r="169" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="66"/>
       <c r="B169" s="43"/>
       <c r="C169" s="43"/>
@@ -5513,7 +5568,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="170" spans="1:22" s="44" customFormat="1">
+    <row r="170" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="66"/>
       <c r="B170" s="43"/>
       <c r="C170" s="43"/>
@@ -5543,7 +5598,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="171" spans="1:22" s="44" customFormat="1">
+    <row r="171" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="66"/>
       <c r="B171" s="43"/>
       <c r="C171" s="43"/>
@@ -5573,7 +5628,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="172" spans="1:22" s="44" customFormat="1">
+    <row r="172" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="66"/>
       <c r="B172" s="43"/>
       <c r="C172" s="43"/>
@@ -5603,7 +5658,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="173" spans="1:22" s="44" customFormat="1">
+    <row r="173" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="66"/>
       <c r="B173" s="43"/>
       <c r="C173" s="43"/>
@@ -5633,7 +5688,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:22" s="44" customFormat="1">
+    <row r="174" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="66"/>
       <c r="B174" s="43"/>
       <c r="C174" s="43"/>
@@ -5663,7 +5718,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:22" s="44" customFormat="1">
+    <row r="175" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="66"/>
       <c r="B175" s="43"/>
       <c r="C175" s="43"/>
@@ -5693,7 +5748,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:22" s="44" customFormat="1">
+    <row r="176" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="66"/>
       <c r="B176" s="43"/>
       <c r="C176" s="43"/>
@@ -5723,7 +5778,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="177" spans="1:22" s="44" customFormat="1">
+    <row r="177" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="66"/>
       <c r="B177" s="43"/>
       <c r="C177" s="43"/>
@@ -5753,7 +5808,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="178" spans="1:22" s="44" customFormat="1">
+    <row r="178" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="66"/>
       <c r="B178" s="43"/>
       <c r="C178" s="43"/>
@@ -5783,7 +5838,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="179" spans="1:22" s="44" customFormat="1">
+    <row r="179" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="66"/>
       <c r="B179" s="43"/>
       <c r="C179" s="43"/>
@@ -5813,7 +5868,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="180" spans="1:22" s="44" customFormat="1">
+    <row r="180" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="66"/>
       <c r="B180" s="43"/>
       <c r="C180" s="43"/>
@@ -5843,7 +5898,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="181" spans="1:22" s="44" customFormat="1">
+    <row r="181" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="66"/>
       <c r="B181" s="43"/>
       <c r="C181" s="43"/>
@@ -5873,7 +5928,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="182" spans="1:22" s="44" customFormat="1">
+    <row r="182" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="66"/>
       <c r="B182" s="43"/>
       <c r="C182" s="43"/>
@@ -5903,7 +5958,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="183" spans="1:22" s="44" customFormat="1">
+    <row r="183" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="66"/>
       <c r="B183" s="43"/>
       <c r="C183" s="43"/>
@@ -5933,7 +5988,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="184" spans="1:22" s="44" customFormat="1">
+    <row r="184" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="66"/>
       <c r="B184" s="43"/>
       <c r="C184" s="43"/>
@@ -5963,7 +6018,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="185" spans="1:22" s="44" customFormat="1">
+    <row r="185" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="66"/>
       <c r="B185" s="43"/>
       <c r="C185" s="43"/>
@@ -5993,7 +6048,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="186" spans="1:22" s="44" customFormat="1">
+    <row r="186" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="66"/>
       <c r="B186" s="43"/>
       <c r="C186" s="43"/>
@@ -6023,7 +6078,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="187" spans="1:22" s="44" customFormat="1">
+    <row r="187" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="66"/>
       <c r="B187" s="43"/>
       <c r="C187" s="43"/>
@@ -6053,7 +6108,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="188" spans="1:22" s="44" customFormat="1">
+    <row r="188" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="66"/>
       <c r="B188" s="43"/>
       <c r="C188" s="43"/>
@@ -6083,7 +6138,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="189" spans="1:22" s="44" customFormat="1">
+    <row r="189" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="66"/>
       <c r="B189" s="43"/>
       <c r="C189" s="43"/>
@@ -6113,7 +6168,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="190" spans="1:22" s="44" customFormat="1">
+    <row r="190" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="66"/>
       <c r="B190" s="43"/>
       <c r="C190" s="43"/>
@@ -6143,7 +6198,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="191" spans="1:22" s="44" customFormat="1">
+    <row r="191" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="66"/>
       <c r="B191" s="43"/>
       <c r="C191" s="43"/>
@@ -6173,7 +6228,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="192" spans="1:22" s="44" customFormat="1">
+    <row r="192" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="66"/>
       <c r="B192" s="43"/>
       <c r="C192" s="43"/>
@@ -6203,7 +6258,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="193" spans="1:22" s="44" customFormat="1">
+    <row r="193" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="66"/>
       <c r="B193" s="43"/>
       <c r="C193" s="43"/>
@@ -6233,7 +6288,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="194" spans="1:22" s="44" customFormat="1">
+    <row r="194" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="66"/>
       <c r="B194" s="43"/>
       <c r="C194" s="43"/>
@@ -6263,7 +6318,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="195" spans="1:22" s="44" customFormat="1">
+    <row r="195" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="66"/>
       <c r="B195" s="43"/>
       <c r="C195" s="43"/>
@@ -6293,7 +6348,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="196" spans="1:22" s="44" customFormat="1">
+    <row r="196" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="66"/>
       <c r="B196" s="43"/>
       <c r="C196" s="43"/>
@@ -6323,7 +6378,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="197" spans="1:22" s="44" customFormat="1">
+    <row r="197" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="66"/>
       <c r="B197" s="43"/>
       <c r="C197" s="43"/>
@@ -6353,7 +6408,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="198" spans="1:22" s="44" customFormat="1">
+    <row r="198" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="66"/>
       <c r="B198" s="43"/>
       <c r="C198" s="43"/>
@@ -6383,7 +6438,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="199" spans="1:22" s="44" customFormat="1">
+    <row r="199" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="66"/>
       <c r="B199" s="43"/>
       <c r="C199" s="43"/>
@@ -6413,7 +6468,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="200" spans="1:22" s="44" customFormat="1">
+    <row r="200" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="66"/>
       <c r="B200" s="43"/>
       <c r="C200" s="43"/>
@@ -6443,7 +6498,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="201" spans="1:22" s="44" customFormat="1">
+    <row r="201" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="66"/>
       <c r="B201" s="43"/>
       <c r="C201" s="43"/>
@@ -6473,7 +6528,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="202" spans="1:22" s="44" customFormat="1">
+    <row r="202" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="66"/>
       <c r="B202" s="43"/>
       <c r="C202" s="43"/>
@@ -6503,7 +6558,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="203" spans="1:22" s="44" customFormat="1">
+    <row r="203" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="66"/>
       <c r="B203" s="43"/>
       <c r="C203" s="43"/>
@@ -6533,7 +6588,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="204" spans="1:22" s="44" customFormat="1">
+    <row r="204" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="66"/>
       <c r="B204" s="43"/>
       <c r="C204" s="43"/>
@@ -6563,7 +6618,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="205" spans="1:22" s="44" customFormat="1">
+    <row r="205" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="66"/>
       <c r="B205" s="43"/>
       <c r="C205" s="43"/>
@@ -6593,7 +6648,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="206" spans="1:22" s="44" customFormat="1">
+    <row r="206" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="66"/>
       <c r="B206" s="43"/>
       <c r="C206" s="43"/>
@@ -6623,7 +6678,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="207" spans="1:22" s="44" customFormat="1">
+    <row r="207" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="66"/>
       <c r="B207" s="43"/>
       <c r="C207" s="43"/>
@@ -6653,7 +6708,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="208" spans="1:22" s="44" customFormat="1">
+    <row r="208" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="66"/>
       <c r="B208" s="43"/>
       <c r="C208" s="43"/>
@@ -6683,7 +6738,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="209" spans="1:22" s="44" customFormat="1">
+    <row r="209" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="66"/>
       <c r="B209" s="43"/>
       <c r="C209" s="43"/>
@@ -6713,7 +6768,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="210" spans="1:22" s="44" customFormat="1">
+    <row r="210" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="66"/>
       <c r="B210" s="43"/>
       <c r="C210" s="43"/>
@@ -6743,7 +6798,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="211" spans="1:22" s="44" customFormat="1">
+    <row r="211" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="66"/>
       <c r="B211" s="43"/>
       <c r="C211" s="43"/>
@@ -6773,7 +6828,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="212" spans="1:22" s="44" customFormat="1">
+    <row r="212" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="66"/>
       <c r="B212" s="43"/>
       <c r="C212" s="43"/>
@@ -6803,7 +6858,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="213" spans="1:22" s="44" customFormat="1">
+    <row r="213" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="66"/>
       <c r="B213" s="43"/>
       <c r="C213" s="43"/>
@@ -6833,7 +6888,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="214" spans="1:22" s="44" customFormat="1">
+    <row r="214" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="66"/>
       <c r="B214" s="43"/>
       <c r="C214" s="43"/>
@@ -6863,7 +6918,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="215" spans="1:22" s="44" customFormat="1">
+    <row r="215" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="66"/>
       <c r="B215" s="43"/>
       <c r="C215" s="43"/>
@@ -6893,7 +6948,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="216" spans="1:22" s="44" customFormat="1">
+    <row r="216" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="66"/>
       <c r="B216" s="43"/>
       <c r="C216" s="43"/>
@@ -6923,7 +6978,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="217" spans="1:22" s="44" customFormat="1">
+    <row r="217" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="66"/>
       <c r="B217" s="43"/>
       <c r="C217" s="43"/>
@@ -6953,7 +7008,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="218" spans="1:22" s="44" customFormat="1">
+    <row r="218" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="66"/>
       <c r="B218" s="43"/>
       <c r="C218" s="43"/>
@@ -6983,7 +7038,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="219" spans="1:22" s="44" customFormat="1">
+    <row r="219" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="66"/>
       <c r="B219" s="43"/>
       <c r="C219" s="43"/>
@@ -7013,7 +7068,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="220" spans="1:22" s="44" customFormat="1">
+    <row r="220" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="66"/>
       <c r="B220" s="43"/>
       <c r="C220" s="43"/>
@@ -7043,7 +7098,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="221" spans="1:22" s="44" customFormat="1">
+    <row r="221" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="66"/>
       <c r="B221" s="43"/>
       <c r="C221" s="43"/>
@@ -7073,7 +7128,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="222" spans="1:22" s="44" customFormat="1">
+    <row r="222" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="66"/>
       <c r="B222" s="43"/>
       <c r="C222" s="43"/>
@@ -7103,7 +7158,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="223" spans="1:22" s="44" customFormat="1">
+    <row r="223" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="66"/>
       <c r="B223" s="43"/>
       <c r="C223" s="43"/>
@@ -7133,7 +7188,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="224" spans="1:22" s="44" customFormat="1">
+    <row r="224" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="66"/>
       <c r="B224" s="43"/>
       <c r="C224" s="43"/>
@@ -7163,7 +7218,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="225" spans="1:22" s="44" customFormat="1">
+    <row r="225" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="66"/>
       <c r="B225" s="43"/>
       <c r="C225" s="43"/>
@@ -7193,7 +7248,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="226" spans="1:22" s="44" customFormat="1">
+    <row r="226" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="66"/>
       <c r="B226" s="43"/>
       <c r="C226" s="43"/>
@@ -7223,7 +7278,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="227" spans="1:22" s="44" customFormat="1">
+    <row r="227" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="66"/>
       <c r="B227" s="43"/>
       <c r="C227" s="43"/>
@@ -7253,7 +7308,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="228" spans="1:22" s="44" customFormat="1">
+    <row r="228" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="66"/>
       <c r="B228" s="43"/>
       <c r="C228" s="43"/>
@@ -7283,7 +7338,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="229" spans="1:22" s="44" customFormat="1">
+    <row r="229" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="66"/>
       <c r="B229" s="43"/>
       <c r="C229" s="43"/>
@@ -7313,7 +7368,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="230" spans="1:22" s="44" customFormat="1">
+    <row r="230" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="66"/>
       <c r="B230" s="43"/>
       <c r="C230" s="43"/>
@@ -7343,7 +7398,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="231" spans="1:22" s="44" customFormat="1">
+    <row r="231" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="66"/>
       <c r="B231" s="43"/>
       <c r="C231" s="43"/>
@@ -7373,7 +7428,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="232" spans="1:22" s="44" customFormat="1">
+    <row r="232" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="66"/>
       <c r="B232" s="43"/>
       <c r="C232" s="43"/>
@@ -7403,7 +7458,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="233" spans="1:22" s="44" customFormat="1">
+    <row r="233" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="66"/>
       <c r="B233" s="43"/>
       <c r="C233" s="43"/>
@@ -7433,7 +7488,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="234" spans="1:22" s="44" customFormat="1">
+    <row r="234" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="66"/>
       <c r="B234" s="43"/>
       <c r="C234" s="43"/>
@@ -7463,7 +7518,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="235" spans="1:22" s="44" customFormat="1">
+    <row r="235" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="66"/>
       <c r="B235" s="43"/>
       <c r="C235" s="43"/>
@@ -7493,7 +7548,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="236" spans="1:22" s="44" customFormat="1">
+    <row r="236" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="66"/>
       <c r="B236" s="43"/>
       <c r="C236" s="43"/>
@@ -7523,7 +7578,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="237" spans="1:22" s="44" customFormat="1">
+    <row r="237" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="66"/>
       <c r="B237" s="43"/>
       <c r="C237" s="43"/>
@@ -7553,7 +7608,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="238" spans="1:22" s="44" customFormat="1">
+    <row r="238" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="66"/>
       <c r="B238" s="43"/>
       <c r="C238" s="43"/>
@@ -7583,7 +7638,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="239" spans="1:22" s="44" customFormat="1">
+    <row r="239" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="66"/>
       <c r="B239" s="43"/>
       <c r="C239" s="43"/>
@@ -7613,7 +7668,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="240" spans="1:22" s="44" customFormat="1">
+    <row r="240" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="66"/>
       <c r="B240" s="43"/>
       <c r="C240" s="43"/>
@@ -7643,7 +7698,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="241" spans="1:22" s="44" customFormat="1">
+    <row r="241" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="66"/>
       <c r="B241" s="43"/>
       <c r="C241" s="43"/>
@@ -7673,7 +7728,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="242" spans="1:22" s="44" customFormat="1">
+    <row r="242" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="66"/>
       <c r="B242" s="43"/>
       <c r="C242" s="43"/>
@@ -7703,7 +7758,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="243" spans="1:22" s="44" customFormat="1">
+    <row r="243" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="66"/>
       <c r="B243" s="43"/>
       <c r="C243" s="43"/>
@@ -7733,7 +7788,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="244" spans="1:22" s="44" customFormat="1">
+    <row r="244" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="66"/>
       <c r="B244" s="43"/>
       <c r="C244" s="43"/>
@@ -7763,7 +7818,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="245" spans="1:22" s="44" customFormat="1">
+    <row r="245" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="66"/>
       <c r="B245" s="43"/>
       <c r="C245" s="43"/>
@@ -7793,7 +7848,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="246" spans="1:22" s="44" customFormat="1">
+    <row r="246" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="66"/>
       <c r="B246" s="43"/>
       <c r="C246" s="43"/>
@@ -7823,7 +7878,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="247" spans="1:22" s="44" customFormat="1">
+    <row r="247" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="66"/>
       <c r="B247" s="43"/>
       <c r="C247" s="43"/>
@@ -7853,7 +7908,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="248" spans="1:22" s="44" customFormat="1">
+    <row r="248" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="66"/>
       <c r="B248" s="43"/>
       <c r="C248" s="43"/>
@@ -7883,7 +7938,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="249" spans="1:22" s="44" customFormat="1">
+    <row r="249" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="66"/>
       <c r="B249" s="43"/>
       <c r="C249" s="43"/>
@@ -7913,7 +7968,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="250" spans="1:22" s="44" customFormat="1">
+    <row r="250" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="66"/>
       <c r="B250" s="43"/>
       <c r="C250" s="43"/>
@@ -7943,7 +7998,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="251" spans="1:22" s="44" customFormat="1">
+    <row r="251" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="66"/>
       <c r="B251" s="43"/>
       <c r="C251" s="43"/>
@@ -7973,7 +8028,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="252" spans="1:22" s="44" customFormat="1">
+    <row r="252" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="66"/>
       <c r="B252" s="43"/>
       <c r="C252" s="43"/>
@@ -8003,7 +8058,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="253" spans="1:22" s="44" customFormat="1">
+    <row r="253" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="66"/>
       <c r="B253" s="43"/>
       <c r="C253" s="43"/>
@@ -8033,7 +8088,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="254" spans="1:22" s="44" customFormat="1">
+    <row r="254" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="66"/>
       <c r="B254" s="43"/>
       <c r="C254" s="43"/>
@@ -8063,7 +8118,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="255" spans="1:22" s="44" customFormat="1">
+    <row r="255" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="66"/>
       <c r="B255" s="43"/>
       <c r="C255" s="43"/>
@@ -8093,7 +8148,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="256" spans="1:22" s="44" customFormat="1">
+    <row r="256" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="66"/>
       <c r="B256" s="43"/>
       <c r="C256" s="43"/>
@@ -8123,7 +8178,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="257" spans="1:22" s="44" customFormat="1">
+    <row r="257" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="66"/>
       <c r="B257" s="43"/>
       <c r="C257" s="43"/>
@@ -8153,7 +8208,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="258" spans="1:22" s="44" customFormat="1">
+    <row r="258" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="66"/>
       <c r="B258" s="43"/>
       <c r="C258" s="43"/>
@@ -8183,7 +8238,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="259" spans="1:22" s="44" customFormat="1">
+    <row r="259" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="66"/>
       <c r="B259" s="43"/>
       <c r="C259" s="43"/>
@@ -8213,7 +8268,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="260" spans="1:22" s="44" customFormat="1">
+    <row r="260" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="66"/>
       <c r="B260" s="43"/>
       <c r="C260" s="43"/>
@@ -8243,7 +8298,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="261" spans="1:22" s="44" customFormat="1">
+    <row r="261" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="66"/>
       <c r="B261" s="43"/>
       <c r="C261" s="43"/>
@@ -8273,7 +8328,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="262" spans="1:22" s="44" customFormat="1">
+    <row r="262" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="66"/>
       <c r="B262" s="43"/>
       <c r="C262" s="43"/>
@@ -8303,7 +8358,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="263" spans="1:22" s="44" customFormat="1">
+    <row r="263" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="66"/>
       <c r="B263" s="43"/>
       <c r="C263" s="43"/>
@@ -8333,7 +8388,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="264" spans="1:22" s="44" customFormat="1">
+    <row r="264" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="66"/>
       <c r="B264" s="43"/>
       <c r="C264" s="43"/>
@@ -8363,7 +8418,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="265" spans="1:22" s="44" customFormat="1">
+    <row r="265" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="66"/>
       <c r="B265" s="43"/>
       <c r="C265" s="43"/>
@@ -8393,7 +8448,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="266" spans="1:22" s="44" customFormat="1">
+    <row r="266" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="66"/>
       <c r="B266" s="43"/>
       <c r="C266" s="43"/>
@@ -8423,7 +8478,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="267" spans="1:22" s="44" customFormat="1">
+    <row r="267" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="66"/>
       <c r="B267" s="43"/>
       <c r="C267" s="43"/>
@@ -8453,7 +8508,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="268" spans="1:22" s="44" customFormat="1">
+    <row r="268" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="66"/>
       <c r="B268" s="43"/>
       <c r="C268" s="43"/>
@@ -8483,7 +8538,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="269" spans="1:22" s="44" customFormat="1">
+    <row r="269" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="66"/>
       <c r="B269" s="43"/>
       <c r="C269" s="43"/>
@@ -8513,7 +8568,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="270" spans="1:22" s="44" customFormat="1">
+    <row r="270" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="66"/>
       <c r="B270" s="43"/>
       <c r="C270" s="43"/>
@@ -8543,7 +8598,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="271" spans="1:22" s="44" customFormat="1">
+    <row r="271" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="66"/>
       <c r="B271" s="43"/>
       <c r="C271" s="43"/>
@@ -8573,7 +8628,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="272" spans="1:22" s="44" customFormat="1">
+    <row r="272" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="66"/>
       <c r="B272" s="43"/>
       <c r="C272" s="43"/>
@@ -8603,7 +8658,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="273" spans="1:22" s="44" customFormat="1">
+    <row r="273" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="66"/>
       <c r="B273" s="43"/>
       <c r="C273" s="43"/>
@@ -8633,7 +8688,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="274" spans="1:22" s="44" customFormat="1">
+    <row r="274" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="66"/>
       <c r="B274" s="43"/>
       <c r="C274" s="43"/>
@@ -8663,7 +8718,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="275" spans="1:22" s="44" customFormat="1">
+    <row r="275" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="66"/>
       <c r="B275" s="43"/>
       <c r="C275" s="43"/>
@@ -8693,7 +8748,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="276" spans="1:22" s="44" customFormat="1">
+    <row r="276" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="66"/>
       <c r="B276" s="43"/>
       <c r="C276" s="43"/>
@@ -8723,7 +8778,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="277" spans="1:22" s="44" customFormat="1">
+    <row r="277" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="66"/>
       <c r="B277" s="43"/>
       <c r="C277" s="43"/>
@@ -8753,7 +8808,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="278" spans="1:22" s="44" customFormat="1">
+    <row r="278" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="66"/>
       <c r="B278" s="43"/>
       <c r="C278" s="43"/>
@@ -8783,7 +8838,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="279" spans="1:22" s="44" customFormat="1">
+    <row r="279" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="66"/>
       <c r="B279" s="43"/>
       <c r="C279" s="43"/>
@@ -8813,7 +8868,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="280" spans="1:22" s="44" customFormat="1">
+    <row r="280" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="66"/>
       <c r="B280" s="43"/>
       <c r="C280" s="43"/>
@@ -8843,7 +8898,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="281" spans="1:22" s="44" customFormat="1">
+    <row r="281" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="66"/>
       <c r="B281" s="43"/>
       <c r="C281" s="43"/>
@@ -8873,7 +8928,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="282" spans="1:22" s="44" customFormat="1">
+    <row r="282" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="66"/>
       <c r="B282" s="43"/>
       <c r="C282" s="43"/>
@@ -8903,7 +8958,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="283" spans="1:22" s="44" customFormat="1">
+    <row r="283" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="66"/>
       <c r="B283" s="43"/>
       <c r="C283" s="43"/>
@@ -8933,7 +8988,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="284" spans="1:22" s="44" customFormat="1">
+    <row r="284" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="66"/>
       <c r="B284" s="43"/>
       <c r="C284" s="43"/>
@@ -8963,7 +9018,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="285" spans="1:22" s="44" customFormat="1">
+    <row r="285" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="66"/>
       <c r="B285" s="43"/>
       <c r="C285" s="43"/>
@@ -8993,7 +9048,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="286" spans="1:22" s="44" customFormat="1">
+    <row r="286" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="66"/>
       <c r="B286" s="43"/>
       <c r="C286" s="43"/>
@@ -9023,7 +9078,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="287" spans="1:22" s="44" customFormat="1">
+    <row r="287" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="66"/>
       <c r="B287" s="43"/>
       <c r="C287" s="43"/>
@@ -9053,7 +9108,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="288" spans="1:22" s="44" customFormat="1">
+    <row r="288" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="66"/>
       <c r="B288" s="43"/>
       <c r="C288" s="43"/>
@@ -9083,7 +9138,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="289" spans="1:22" s="44" customFormat="1">
+    <row r="289" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="66"/>
       <c r="B289" s="43"/>
       <c r="C289" s="43"/>
@@ -9113,7 +9168,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="290" spans="1:22" s="44" customFormat="1">
+    <row r="290" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="66"/>
       <c r="B290" s="43"/>
       <c r="C290" s="43"/>
@@ -9143,7 +9198,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="291" spans="1:22" s="44" customFormat="1">
+    <row r="291" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="66"/>
       <c r="B291" s="43"/>
       <c r="C291" s="43"/>
@@ -9173,7 +9228,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="292" spans="1:22" s="44" customFormat="1">
+    <row r="292" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="66"/>
       <c r="B292" s="43"/>
       <c r="C292" s="43"/>
@@ -9203,7 +9258,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="293" spans="1:22" s="44" customFormat="1">
+    <row r="293" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="66"/>
       <c r="B293" s="43"/>
       <c r="C293" s="43"/>
@@ -9233,7 +9288,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="294" spans="1:22" s="44" customFormat="1">
+    <row r="294" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="66"/>
       <c r="B294" s="43"/>
       <c r="C294" s="43"/>
@@ -9263,7 +9318,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="295" spans="1:22" s="44" customFormat="1">
+    <row r="295" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="66"/>
       <c r="B295" s="43"/>
       <c r="C295" s="43"/>
@@ -9293,7 +9348,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="296" spans="1:22" s="44" customFormat="1">
+    <row r="296" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="66"/>
       <c r="B296" s="43"/>
       <c r="C296" s="43"/>
@@ -9323,7 +9378,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="297" spans="1:22" s="44" customFormat="1">
+    <row r="297" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="66"/>
       <c r="B297" s="43"/>
       <c r="C297" s="43"/>
@@ -9353,7 +9408,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="298" spans="1:22" s="44" customFormat="1">
+    <row r="298" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="66"/>
       <c r="B298" s="43"/>
       <c r="C298" s="43"/>
@@ -9383,7 +9438,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="299" spans="1:22" s="44" customFormat="1">
+    <row r="299" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="66"/>
       <c r="B299" s="43"/>
       <c r="C299" s="43"/>
@@ -9413,7 +9468,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="300" spans="1:22" s="44" customFormat="1">
+    <row r="300" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="66"/>
       <c r="B300" s="43"/>
       <c r="C300" s="43"/>
@@ -9443,7 +9498,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="301" spans="1:22" s="44" customFormat="1">
+    <row r="301" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="66"/>
       <c r="B301" s="43"/>
       <c r="C301" s="43"/>
@@ -9473,7 +9528,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="302" spans="1:22" s="44" customFormat="1">
+    <row r="302" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="66"/>
       <c r="B302" s="43"/>
       <c r="C302" s="43"/>
@@ -9503,7 +9558,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="303" spans="1:22" s="44" customFormat="1">
+    <row r="303" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="66"/>
       <c r="B303" s="43"/>
       <c r="C303" s="43"/>
@@ -9533,7 +9588,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="304" spans="1:22" s="44" customFormat="1">
+    <row r="304" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="66"/>
       <c r="B304" s="43"/>
       <c r="C304" s="43"/>
@@ -9563,7 +9618,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="305" spans="1:22" s="44" customFormat="1">
+    <row r="305" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="66"/>
       <c r="B305" s="43"/>
       <c r="C305" s="43"/>
@@ -9593,7 +9648,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="306" spans="1:22" s="44" customFormat="1">
+    <row r="306" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="66"/>
       <c r="B306" s="43"/>
       <c r="C306" s="43"/>
@@ -9623,7 +9678,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="307" spans="1:22" s="44" customFormat="1">
+    <row r="307" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="66"/>
       <c r="B307" s="43"/>
       <c r="C307" s="43"/>
@@ -9653,7 +9708,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="308" spans="1:22" s="44" customFormat="1">
+    <row r="308" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="66"/>
       <c r="B308" s="43"/>
       <c r="C308" s="43"/>
@@ -9683,7 +9738,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="309" spans="1:22" s="44" customFormat="1">
+    <row r="309" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="66"/>
       <c r="B309" s="43"/>
       <c r="C309" s="43"/>
@@ -9713,7 +9768,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="310" spans="1:22" s="44" customFormat="1">
+    <row r="310" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="66"/>
       <c r="B310" s="43"/>
       <c r="C310" s="43"/>
@@ -9743,7 +9798,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="311" spans="1:22" s="44" customFormat="1">
+    <row r="311" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="66"/>
       <c r="B311" s="43"/>
       <c r="C311" s="43"/>
@@ -9773,7 +9828,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="312" spans="1:22" s="44" customFormat="1">
+    <row r="312" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="66"/>
       <c r="B312" s="43"/>
       <c r="C312" s="43"/>
@@ -9803,7 +9858,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="313" spans="1:22" s="44" customFormat="1">
+    <row r="313" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="66"/>
       <c r="B313" s="43"/>
       <c r="C313" s="43"/>
@@ -9833,7 +9888,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="314" spans="1:22" s="44" customFormat="1">
+    <row r="314" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="66"/>
       <c r="B314" s="43"/>
       <c r="C314" s="43"/>
@@ -9863,7 +9918,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="315" spans="1:22" s="44" customFormat="1">
+    <row r="315" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="66"/>
       <c r="B315" s="43"/>
       <c r="C315" s="43"/>
@@ -9893,7 +9948,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="316" spans="1:22" s="44" customFormat="1">
+    <row r="316" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="66"/>
       <c r="B316" s="43"/>
       <c r="C316" s="43"/>
@@ -9923,7 +9978,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="317" spans="1:22" s="44" customFormat="1">
+    <row r="317" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="66"/>
       <c r="B317" s="43"/>
       <c r="C317" s="43"/>
@@ -9953,7 +10008,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="318" spans="1:22" s="44" customFormat="1">
+    <row r="318" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="66"/>
       <c r="B318" s="43"/>
       <c r="C318" s="43"/>
@@ -9983,7 +10038,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="319" spans="1:22" s="44" customFormat="1">
+    <row r="319" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="66"/>
       <c r="B319" s="43"/>
       <c r="C319" s="43"/>
@@ -10013,7 +10068,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="320" spans="1:22" s="44" customFormat="1">
+    <row r="320" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="66"/>
       <c r="B320" s="43"/>
       <c r="C320" s="43"/>
@@ -10043,7 +10098,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="321" spans="1:22" s="44" customFormat="1">
+    <row r="321" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="66"/>
       <c r="B321" s="43"/>
       <c r="C321" s="43"/>
@@ -10073,7 +10128,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="322" spans="1:22" s="44" customFormat="1">
+    <row r="322" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="66"/>
       <c r="B322" s="43"/>
       <c r="C322" s="43"/>
@@ -10103,7 +10158,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="323" spans="1:22" s="44" customFormat="1">
+    <row r="323" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="66"/>
       <c r="B323" s="43"/>
       <c r="C323" s="43"/>
@@ -10133,7 +10188,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="324" spans="1:22" s="44" customFormat="1">
+    <row r="324" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="66"/>
       <c r="B324" s="43"/>
       <c r="C324" s="43"/>
@@ -10163,7 +10218,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="325" spans="1:22" s="44" customFormat="1">
+    <row r="325" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="66"/>
       <c r="B325" s="43"/>
       <c r="C325" s="43"/>
@@ -10193,7 +10248,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="326" spans="1:22" s="44" customFormat="1">
+    <row r="326" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="66"/>
       <c r="B326" s="43"/>
       <c r="C326" s="43"/>
@@ -10223,7 +10278,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="327" spans="1:22" s="44" customFormat="1">
+    <row r="327" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="66"/>
       <c r="B327" s="43"/>
       <c r="C327" s="43"/>
@@ -10253,7 +10308,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="328" spans="1:22" s="44" customFormat="1">
+    <row r="328" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="66"/>
       <c r="B328" s="43"/>
       <c r="C328" s="43"/>
@@ -10283,7 +10338,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="329" spans="1:22" s="44" customFormat="1">
+    <row r="329" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="66"/>
       <c r="B329" s="43"/>
       <c r="C329" s="43"/>
@@ -10313,7 +10368,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="330" spans="1:22" s="44" customFormat="1">
+    <row r="330" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="66"/>
       <c r="B330" s="43"/>
       <c r="C330" s="43"/>
@@ -10343,7 +10398,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="331" spans="1:22" s="44" customFormat="1">
+    <row r="331" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="66"/>
       <c r="B331" s="43"/>
       <c r="C331" s="43"/>
@@ -10373,7 +10428,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="332" spans="1:22" s="44" customFormat="1">
+    <row r="332" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="66"/>
       <c r="B332" s="43"/>
       <c r="C332" s="43"/>
@@ -10403,7 +10458,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="333" spans="1:22" s="44" customFormat="1">
+    <row r="333" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="66"/>
       <c r="B333" s="43"/>
       <c r="C333" s="43"/>
@@ -10433,7 +10488,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="334" spans="1:22" s="44" customFormat="1">
+    <row r="334" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="66"/>
       <c r="B334" s="43"/>
       <c r="C334" s="43"/>
@@ -10463,7 +10518,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="335" spans="1:22" s="44" customFormat="1">
+    <row r="335" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="66"/>
       <c r="B335" s="43"/>
       <c r="C335" s="43"/>
@@ -10493,7 +10548,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="336" spans="1:22" s="44" customFormat="1">
+    <row r="336" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="66"/>
       <c r="B336" s="43"/>
       <c r="C336" s="43"/>
@@ -10523,7 +10578,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="337" spans="1:22" s="44" customFormat="1">
+    <row r="337" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="66"/>
       <c r="B337" s="43"/>
       <c r="C337" s="43"/>
@@ -10553,7 +10608,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="338" spans="1:22" s="44" customFormat="1">
+    <row r="338" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="66"/>
       <c r="B338" s="43"/>
       <c r="C338" s="43"/>
@@ -10583,7 +10638,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="339" spans="1:22" s="44" customFormat="1">
+    <row r="339" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="66"/>
       <c r="B339" s="43"/>
       <c r="C339" s="43"/>
@@ -10613,7 +10668,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="340" spans="1:22" s="44" customFormat="1">
+    <row r="340" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="66"/>
       <c r="B340" s="43"/>
       <c r="C340" s="43"/>
@@ -10643,7 +10698,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="341" spans="1:22" s="44" customFormat="1">
+    <row r="341" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="66"/>
       <c r="B341" s="43"/>
       <c r="C341" s="43"/>
@@ -10673,7 +10728,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="342" spans="1:22" s="44" customFormat="1">
+    <row r="342" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="66"/>
       <c r="B342" s="43"/>
       <c r="C342" s="43"/>
@@ -10703,7 +10758,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="343" spans="1:22" s="44" customFormat="1">
+    <row r="343" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="66"/>
       <c r="B343" s="43"/>
       <c r="C343" s="43"/>
@@ -10733,7 +10788,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="344" spans="1:22" s="44" customFormat="1">
+    <row r="344" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="66"/>
       <c r="B344" s="43"/>
       <c r="C344" s="43"/>
@@ -10763,7 +10818,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="345" spans="1:22" s="44" customFormat="1">
+    <row r="345" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="66"/>
       <c r="B345" s="43"/>
       <c r="C345" s="43"/>
@@ -10793,7 +10848,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="346" spans="1:22" s="44" customFormat="1">
+    <row r="346" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="66"/>
       <c r="B346" s="43"/>
       <c r="C346" s="43"/>
@@ -10823,7 +10878,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="347" spans="1:22" s="44" customFormat="1">
+    <row r="347" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="66"/>
       <c r="B347" s="43"/>
       <c r="C347" s="43"/>
@@ -10853,7 +10908,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="348" spans="1:22" s="44" customFormat="1">
+    <row r="348" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="66"/>
       <c r="B348" s="43"/>
       <c r="C348" s="43"/>
@@ -10883,7 +10938,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="349" spans="1:22" s="44" customFormat="1">
+    <row r="349" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="66"/>
       <c r="B349" s="43"/>
       <c r="C349" s="43"/>
@@ -10913,7 +10968,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="350" spans="1:22" s="44" customFormat="1">
+    <row r="350" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="66"/>
       <c r="B350" s="43"/>
       <c r="C350" s="43"/>
@@ -10943,7 +10998,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="351" spans="1:22" s="44" customFormat="1">
+    <row r="351" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="66"/>
       <c r="B351" s="43"/>
       <c r="C351" s="43"/>
@@ -10973,7 +11028,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="352" spans="1:22" s="44" customFormat="1">
+    <row r="352" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="66"/>
       <c r="B352" s="43"/>
       <c r="C352" s="43"/>
@@ -11003,7 +11058,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="353" spans="1:22" s="44" customFormat="1">
+    <row r="353" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="66"/>
       <c r="B353" s="43"/>
       <c r="C353" s="43"/>
@@ -11033,7 +11088,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="354" spans="1:22" s="44" customFormat="1">
+    <row r="354" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="66"/>
       <c r="B354" s="43"/>
       <c r="C354" s="43"/>
@@ -11063,7 +11118,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="355" spans="1:22" s="44" customFormat="1">
+    <row r="355" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="66"/>
       <c r="B355" s="43"/>
       <c r="C355" s="43"/>
@@ -11093,7 +11148,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="356" spans="1:22" s="44" customFormat="1">
+    <row r="356" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="66"/>
       <c r="B356" s="43"/>
       <c r="C356" s="43"/>
@@ -11123,7 +11178,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="357" spans="1:22" s="44" customFormat="1">
+    <row r="357" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="66"/>
       <c r="B357" s="43"/>
       <c r="C357" s="43"/>
@@ -11153,7 +11208,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="358" spans="1:22" s="44" customFormat="1">
+    <row r="358" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="66"/>
       <c r="B358" s="43"/>
       <c r="C358" s="43"/>
@@ -11183,7 +11238,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="359" spans="1:22" s="44" customFormat="1">
+    <row r="359" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="66"/>
       <c r="B359" s="43"/>
       <c r="C359" s="43"/>
@@ -11213,7 +11268,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="360" spans="1:22" s="44" customFormat="1">
+    <row r="360" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="66"/>
       <c r="B360" s="43"/>
       <c r="C360" s="43"/>
@@ -11243,7 +11298,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="361" spans="1:22" s="44" customFormat="1">
+    <row r="361" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="66"/>
       <c r="B361" s="43"/>
       <c r="C361" s="43"/>
@@ -11273,7 +11328,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="362" spans="1:22" s="44" customFormat="1">
+    <row r="362" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="66"/>
       <c r="B362" s="43"/>
       <c r="C362" s="43"/>
@@ -11303,7 +11358,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="363" spans="1:22" s="44" customFormat="1">
+    <row r="363" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="66"/>
       <c r="B363" s="43"/>
       <c r="C363" s="43"/>
@@ -11333,7 +11388,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="364" spans="1:22" s="44" customFormat="1">
+    <row r="364" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="66"/>
       <c r="B364" s="43"/>
       <c r="C364" s="43"/>
@@ -11363,7 +11418,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="365" spans="1:22" s="44" customFormat="1">
+    <row r="365" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="66"/>
       <c r="B365" s="43"/>
       <c r="C365" s="43"/>
@@ -11393,7 +11448,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="366" spans="1:22" s="44" customFormat="1">
+    <row r="366" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="66"/>
       <c r="B366" s="43"/>
       <c r="C366" s="43"/>
@@ -11423,7 +11478,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="367" spans="1:22" s="44" customFormat="1">
+    <row r="367" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="66"/>
       <c r="B367" s="43"/>
       <c r="C367" s="43"/>
@@ -11453,7 +11508,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="368" spans="1:22" s="44" customFormat="1">
+    <row r="368" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="66"/>
       <c r="B368" s="43"/>
       <c r="C368" s="43"/>
@@ -11483,7 +11538,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="369" spans="1:22" s="44" customFormat="1">
+    <row r="369" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="66"/>
       <c r="B369" s="43"/>
       <c r="C369" s="43"/>
@@ -11513,7 +11568,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="370" spans="1:22" s="44" customFormat="1">
+    <row r="370" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="66"/>
       <c r="B370" s="43"/>
       <c r="C370" s="43"/>
@@ -11543,7 +11598,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="371" spans="1:22" s="44" customFormat="1">
+    <row r="371" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="66"/>
       <c r="B371" s="43"/>
       <c r="C371" s="43"/>
@@ -11573,7 +11628,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="372" spans="1:22" s="44" customFormat="1">
+    <row r="372" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="66"/>
       <c r="B372" s="43"/>
       <c r="C372" s="43"/>
@@ -11603,7 +11658,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="373" spans="1:22" s="44" customFormat="1">
+    <row r="373" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="66"/>
       <c r="B373" s="43"/>
       <c r="C373" s="43"/>
@@ -11633,7 +11688,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="374" spans="1:22" s="44" customFormat="1">
+    <row r="374" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="66"/>
       <c r="B374" s="43"/>
       <c r="C374" s="43"/>
@@ -11663,7 +11718,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="375" spans="1:22" s="44" customFormat="1">
+    <row r="375" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="66"/>
       <c r="B375" s="43"/>
       <c r="C375" s="43"/>
@@ -11693,7 +11748,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="376" spans="1:22" s="44" customFormat="1">
+    <row r="376" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="66"/>
       <c r="B376" s="43"/>
       <c r="C376" s="43"/>
@@ -11723,7 +11778,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="377" spans="1:22" s="44" customFormat="1">
+    <row r="377" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="66"/>
       <c r="B377" s="43"/>
       <c r="C377" s="43"/>
@@ -11753,7 +11808,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="378" spans="1:22" s="44" customFormat="1">
+    <row r="378" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="66"/>
       <c r="B378" s="43"/>
       <c r="C378" s="43"/>
@@ -11783,7 +11838,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="379" spans="1:22" s="44" customFormat="1">
+    <row r="379" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="66"/>
       <c r="B379" s="43"/>
       <c r="C379" s="43"/>
@@ -11813,7 +11868,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="380" spans="1:22" s="44" customFormat="1">
+    <row r="380" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="66"/>
       <c r="B380" s="43"/>
       <c r="C380" s="43"/>
@@ -11843,7 +11898,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="381" spans="1:22" s="44" customFormat="1">
+    <row r="381" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="66"/>
       <c r="B381" s="43"/>
       <c r="C381" s="43"/>
@@ -11873,7 +11928,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="382" spans="1:22" s="44" customFormat="1">
+    <row r="382" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="66"/>
       <c r="B382" s="43"/>
       <c r="C382" s="43"/>
@@ -11903,7 +11958,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="383" spans="1:22" s="44" customFormat="1">
+    <row r="383" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="66"/>
       <c r="B383" s="43"/>
       <c r="C383" s="43"/>
@@ -11933,7 +11988,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="384" spans="1:22" s="44" customFormat="1">
+    <row r="384" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="66"/>
       <c r="B384" s="43"/>
       <c r="C384" s="43"/>
@@ -11963,7 +12018,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="385" spans="1:22" s="44" customFormat="1">
+    <row r="385" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="66"/>
       <c r="B385" s="43"/>
       <c r="C385" s="43"/>
@@ -11993,7 +12048,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="386" spans="1:22" s="44" customFormat="1">
+    <row r="386" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="66"/>
       <c r="B386" s="43"/>
       <c r="C386" s="43"/>
@@ -12023,7 +12078,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="387" spans="1:22" s="44" customFormat="1">
+    <row r="387" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="66"/>
       <c r="B387" s="43"/>
       <c r="C387" s="43"/>
@@ -12053,7 +12108,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="388" spans="1:22" s="44" customFormat="1">
+    <row r="388" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="66"/>
       <c r="B388" s="43"/>
       <c r="C388" s="43"/>
@@ -12083,7 +12138,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="389" spans="1:22" s="44" customFormat="1">
+    <row r="389" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="66"/>
       <c r="B389" s="43"/>
       <c r="C389" s="43"/>
@@ -12113,7 +12168,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="390" spans="1:22" s="44" customFormat="1">
+    <row r="390" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="66"/>
       <c r="B390" s="43"/>
       <c r="C390" s="43"/>
@@ -12143,7 +12198,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="391" spans="1:22" s="44" customFormat="1">
+    <row r="391" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="66"/>
       <c r="B391" s="43"/>
       <c r="C391" s="43"/>
@@ -12173,7 +12228,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="392" spans="1:22" s="44" customFormat="1">
+    <row r="392" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="66"/>
       <c r="B392" s="43"/>
       <c r="C392" s="43"/>
@@ -12203,7 +12258,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="393" spans="1:22" s="44" customFormat="1">
+    <row r="393" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="66"/>
       <c r="B393" s="43"/>
       <c r="C393" s="43"/>
@@ -12233,7 +12288,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="394" spans="1:22" s="44" customFormat="1">
+    <row r="394" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="66"/>
       <c r="B394" s="43"/>
       <c r="C394" s="43"/>
@@ -12263,7 +12318,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="395" spans="1:22" s="44" customFormat="1">
+    <row r="395" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="66"/>
       <c r="B395" s="43"/>
       <c r="C395" s="43"/>
@@ -12293,7 +12348,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="396" spans="1:22" s="44" customFormat="1">
+    <row r="396" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="66"/>
       <c r="B396" s="43"/>
       <c r="C396" s="43"/>
@@ -12323,7 +12378,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="397" spans="1:22" s="44" customFormat="1">
+    <row r="397" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="66"/>
       <c r="B397" s="43"/>
       <c r="C397" s="43"/>
@@ -12353,7 +12408,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="398" spans="1:22" s="44" customFormat="1">
+    <row r="398" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="66"/>
       <c r="B398" s="43"/>
       <c r="C398" s="43"/>
@@ -12383,7 +12438,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="399" spans="1:22" s="44" customFormat="1">
+    <row r="399" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="66"/>
       <c r="B399" s="43"/>
       <c r="C399" s="43"/>
@@ -12413,7 +12468,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="400" spans="1:22" s="44" customFormat="1">
+    <row r="400" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="66"/>
       <c r="B400" s="43"/>
       <c r="C400" s="43"/>
@@ -12443,7 +12498,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="401" spans="1:22" s="44" customFormat="1">
+    <row r="401" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="66"/>
       <c r="B401" s="43"/>
       <c r="C401" s="43"/>
@@ -12473,7 +12528,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="402" spans="1:22" s="44" customFormat="1">
+    <row r="402" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="66"/>
       <c r="B402" s="43"/>
       <c r="C402" s="43"/>
@@ -12503,7 +12558,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="403" spans="1:22" s="44" customFormat="1">
+    <row r="403" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="66"/>
       <c r="B403" s="43"/>
       <c r="C403" s="43"/>
@@ -12533,7 +12588,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="404" spans="1:22" s="44" customFormat="1">
+    <row r="404" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="66"/>
       <c r="B404" s="43"/>
       <c r="C404" s="43"/>
@@ -12563,7 +12618,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="405" spans="1:22" s="44" customFormat="1">
+    <row r="405" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="66"/>
       <c r="B405" s="43"/>
       <c r="C405" s="43"/>
@@ -12593,7 +12648,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="406" spans="1:22" s="44" customFormat="1">
+    <row r="406" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="66"/>
       <c r="B406" s="43"/>
       <c r="C406" s="43"/>
@@ -12623,7 +12678,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="407" spans="1:22" s="44" customFormat="1">
+    <row r="407" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="66"/>
       <c r="B407" s="43"/>
       <c r="C407" s="43"/>
@@ -12653,7 +12708,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="408" spans="1:22" s="44" customFormat="1">
+    <row r="408" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="66"/>
       <c r="B408" s="43"/>
       <c r="C408" s="43"/>
@@ -12683,7 +12738,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="409" spans="1:22" s="44" customFormat="1">
+    <row r="409" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="66"/>
       <c r="B409" s="43"/>
       <c r="C409" s="43"/>
@@ -12713,7 +12768,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="410" spans="1:22" s="44" customFormat="1">
+    <row r="410" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="66"/>
       <c r="B410" s="43"/>
       <c r="C410" s="43"/>
@@ -12743,7 +12798,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="411" spans="1:22" s="44" customFormat="1">
+    <row r="411" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="66"/>
       <c r="B411" s="43"/>
       <c r="C411" s="43"/>
@@ -12773,7 +12828,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="412" spans="1:22" s="44" customFormat="1">
+    <row r="412" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="66"/>
       <c r="B412" s="43"/>
       <c r="C412" s="43"/>
@@ -12803,7 +12858,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="413" spans="1:22" s="44" customFormat="1">
+    <row r="413" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="66"/>
       <c r="B413" s="43"/>
       <c r="C413" s="43"/>
@@ -12833,7 +12888,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="414" spans="1:22" s="44" customFormat="1">
+    <row r="414" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" s="66"/>
       <c r="B414" s="43"/>
       <c r="C414" s="43"/>
@@ -12863,7 +12918,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="415" spans="1:22" s="44" customFormat="1">
+    <row r="415" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="66"/>
       <c r="B415" s="43"/>
       <c r="C415" s="43"/>
@@ -12893,7 +12948,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="416" spans="1:22" s="44" customFormat="1">
+    <row r="416" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="66"/>
       <c r="B416" s="43"/>
       <c r="C416" s="43"/>
@@ -12923,7 +12978,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="417" spans="1:22" s="44" customFormat="1">
+    <row r="417" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="66"/>
       <c r="B417" s="43"/>
       <c r="C417" s="43"/>
@@ -12953,7 +13008,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="418" spans="1:22" s="44" customFormat="1">
+    <row r="418" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A418" s="66"/>
       <c r="B418" s="43"/>
       <c r="C418" s="43"/>
@@ -12983,7 +13038,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="419" spans="1:22" s="44" customFormat="1">
+    <row r="419" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="66"/>
       <c r="B419" s="43"/>
       <c r="C419" s="43"/>
@@ -13013,7 +13068,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="420" spans="1:22" s="44" customFormat="1">
+    <row r="420" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="66"/>
       <c r="B420" s="43"/>
       <c r="C420" s="43"/>
@@ -13043,7 +13098,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="421" spans="1:22" s="44" customFormat="1">
+    <row r="421" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="66"/>
       <c r="B421" s="43"/>
       <c r="C421" s="43"/>
@@ -13073,7 +13128,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="422" spans="1:22" s="44" customFormat="1">
+    <row r="422" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A422" s="66"/>
       <c r="B422" s="43"/>
       <c r="C422" s="43"/>
@@ -13103,7 +13158,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="423" spans="1:22" s="44" customFormat="1">
+    <row r="423" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" s="66"/>
       <c r="B423" s="43"/>
       <c r="C423" s="43"/>
@@ -13133,7 +13188,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="424" spans="1:22" s="44" customFormat="1">
+    <row r="424" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="66"/>
       <c r="B424" s="43"/>
       <c r="C424" s="43"/>
@@ -13163,7 +13218,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="425" spans="1:22" s="44" customFormat="1">
+    <row r="425" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="66"/>
       <c r="B425" s="43"/>
       <c r="C425" s="43"/>
@@ -13193,7 +13248,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="426" spans="1:22" s="44" customFormat="1">
+    <row r="426" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="66"/>
       <c r="B426" s="43"/>
       <c r="C426" s="43"/>
@@ -13223,7 +13278,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="427" spans="1:22" s="44" customFormat="1">
+    <row r="427" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="66"/>
       <c r="B427" s="43"/>
       <c r="C427" s="43"/>
@@ -13253,7 +13308,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="428" spans="1:22" s="44" customFormat="1">
+    <row r="428" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="66"/>
       <c r="B428" s="43"/>
       <c r="C428" s="43"/>
@@ -13283,7 +13338,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="429" spans="1:22" s="44" customFormat="1">
+    <row r="429" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A429" s="66"/>
       <c r="B429" s="43"/>
       <c r="C429" s="43"/>
@@ -13313,7 +13368,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="430" spans="1:22" s="44" customFormat="1">
+    <row r="430" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A430" s="66"/>
       <c r="B430" s="43"/>
       <c r="C430" s="43"/>
@@ -13343,7 +13398,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="431" spans="1:22" s="44" customFormat="1">
+    <row r="431" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A431" s="66"/>
       <c r="B431" s="43"/>
       <c r="C431" s="43"/>
@@ -13373,7 +13428,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="432" spans="1:22" s="44" customFormat="1">
+    <row r="432" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A432" s="66"/>
       <c r="B432" s="43"/>
       <c r="C432" s="43"/>
@@ -13403,7 +13458,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="433" spans="1:22" s="44" customFormat="1">
+    <row r="433" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A433" s="66"/>
       <c r="B433" s="43"/>
       <c r="C433" s="43"/>
@@ -13433,7 +13488,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="434" spans="1:22" s="44" customFormat="1">
+    <row r="434" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A434" s="66"/>
       <c r="B434" s="43"/>
       <c r="C434" s="43"/>
@@ -13463,7 +13518,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="435" spans="1:22" s="44" customFormat="1">
+    <row r="435" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" s="66"/>
       <c r="B435" s="43"/>
       <c r="C435" s="43"/>
@@ -13493,7 +13548,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="436" spans="1:22" s="44" customFormat="1">
+    <row r="436" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="66"/>
       <c r="B436" s="43"/>
       <c r="C436" s="43"/>
@@ -13523,7 +13578,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="437" spans="1:22" s="44" customFormat="1">
+    <row r="437" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A437" s="66"/>
       <c r="B437" s="43"/>
       <c r="C437" s="43"/>
@@ -13553,7 +13608,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="438" spans="1:22" s="44" customFormat="1">
+    <row r="438" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A438" s="66"/>
       <c r="B438" s="43"/>
       <c r="C438" s="43"/>
@@ -13583,7 +13638,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="439" spans="1:22" s="44" customFormat="1">
+    <row r="439" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A439" s="66"/>
       <c r="B439" s="43"/>
       <c r="C439" s="43"/>
@@ -13613,7 +13668,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="440" spans="1:22" s="44" customFormat="1">
+    <row r="440" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="66"/>
       <c r="B440" s="43"/>
       <c r="C440" s="43"/>
@@ -13643,7 +13698,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="441" spans="1:22" s="44" customFormat="1">
+    <row r="441" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" s="66"/>
       <c r="B441" s="43"/>
       <c r="C441" s="43"/>
@@ -13673,7 +13728,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="442" spans="1:22" s="44" customFormat="1">
+    <row r="442" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="66"/>
       <c r="B442" s="43"/>
       <c r="C442" s="43"/>
@@ -13703,7 +13758,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="443" spans="1:22" s="44" customFormat="1">
+    <row r="443" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="66"/>
       <c r="B443" s="43"/>
       <c r="C443" s="43"/>
@@ -13733,7 +13788,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="444" spans="1:22" s="44" customFormat="1">
+    <row r="444" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A444" s="66"/>
       <c r="B444" s="43"/>
       <c r="C444" s="43"/>
@@ -13763,7 +13818,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="445" spans="1:22" s="44" customFormat="1">
+    <row r="445" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="66"/>
       <c r="B445" s="43"/>
       <c r="C445" s="43"/>
@@ -13793,7 +13848,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="446" spans="1:22" s="44" customFormat="1">
+    <row r="446" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A446" s="66"/>
       <c r="B446" s="43"/>
       <c r="C446" s="43"/>
@@ -13823,7 +13878,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="447" spans="1:22" s="44" customFormat="1">
+    <row r="447" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A447" s="66"/>
       <c r="B447" s="43"/>
       <c r="C447" s="43"/>
@@ -13853,7 +13908,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="448" spans="1:22" s="44" customFormat="1">
+    <row r="448" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="66"/>
       <c r="B448" s="43"/>
       <c r="C448" s="43"/>
@@ -13883,7 +13938,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="449" spans="1:22" s="44" customFormat="1">
+    <row r="449" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="66"/>
       <c r="B449" s="43"/>
       <c r="C449" s="43"/>
@@ -13913,7 +13968,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="450" spans="1:22" s="44" customFormat="1">
+    <row r="450" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="66"/>
       <c r="B450" s="43"/>
       <c r="C450" s="43"/>
@@ -13943,7 +13998,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="451" spans="1:22" s="44" customFormat="1">
+    <row r="451" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A451" s="66"/>
       <c r="B451" s="43"/>
       <c r="C451" s="43"/>
@@ -13973,7 +14028,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="452" spans="1:22" s="44" customFormat="1">
+    <row r="452" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A452" s="66"/>
       <c r="B452" s="43"/>
       <c r="C452" s="43"/>
@@ -14003,7 +14058,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="453" spans="1:22" s="44" customFormat="1">
+    <row r="453" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A453" s="66"/>
       <c r="B453" s="43"/>
       <c r="C453" s="43"/>
@@ -14033,7 +14088,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="454" spans="1:22" s="44" customFormat="1">
+    <row r="454" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A454" s="66"/>
       <c r="B454" s="43"/>
       <c r="C454" s="43"/>
@@ -14063,7 +14118,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="455" spans="1:22" s="44" customFormat="1">
+    <row r="455" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A455" s="66"/>
       <c r="B455" s="43"/>
       <c r="C455" s="43"/>
@@ -14093,7 +14148,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="456" spans="1:22" s="44" customFormat="1">
+    <row r="456" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A456" s="66"/>
       <c r="B456" s="43"/>
       <c r="C456" s="43"/>
@@ -14123,7 +14178,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="457" spans="1:22" s="44" customFormat="1">
+    <row r="457" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A457" s="66"/>
       <c r="B457" s="43"/>
       <c r="C457" s="43"/>
@@ -14153,7 +14208,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="458" spans="1:22" s="44" customFormat="1">
+    <row r="458" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A458" s="66"/>
       <c r="B458" s="43"/>
       <c r="C458" s="43"/>
@@ -14183,7 +14238,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="459" spans="1:22" s="44" customFormat="1">
+    <row r="459" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A459" s="66"/>
       <c r="B459" s="43"/>
       <c r="C459" s="43"/>
@@ -14213,7 +14268,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="460" spans="1:22" s="44" customFormat="1">
+    <row r="460" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A460" s="66"/>
       <c r="B460" s="43"/>
       <c r="C460" s="43"/>
@@ -14243,7 +14298,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="461" spans="1:22" s="44" customFormat="1">
+    <row r="461" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="66"/>
       <c r="B461" s="43"/>
       <c r="C461" s="43"/>
@@ -14273,7 +14328,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="462" spans="1:22" s="44" customFormat="1">
+    <row r="462" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="66"/>
       <c r="B462" s="43"/>
       <c r="C462" s="43"/>
@@ -14303,7 +14358,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="463" spans="1:22" s="44" customFormat="1">
+    <row r="463" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A463" s="66"/>
       <c r="B463" s="43"/>
       <c r="C463" s="43"/>
@@ -14333,7 +14388,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="464" spans="1:22" s="44" customFormat="1">
+    <row r="464" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A464" s="66"/>
       <c r="B464" s="43"/>
       <c r="C464" s="43"/>
@@ -14363,7 +14418,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="465" spans="1:22" s="44" customFormat="1">
+    <row r="465" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A465" s="66"/>
       <c r="B465" s="43"/>
       <c r="C465" s="43"/>
@@ -14393,7 +14448,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="466" spans="1:22" s="44" customFormat="1">
+    <row r="466" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A466" s="66"/>
       <c r="B466" s="43"/>
       <c r="C466" s="43"/>
@@ -14423,7 +14478,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="467" spans="1:22" s="44" customFormat="1">
+    <row r="467" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A467" s="66"/>
       <c r="B467" s="43"/>
       <c r="C467" s="43"/>
@@ -14453,7 +14508,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="468" spans="1:22" s="44" customFormat="1">
+    <row r="468" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A468" s="66"/>
       <c r="B468" s="43"/>
       <c r="C468" s="43"/>
@@ -14483,7 +14538,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="469" spans="1:22" s="44" customFormat="1">
+    <row r="469" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A469" s="66"/>
       <c r="B469" s="43"/>
       <c r="C469" s="43"/>
@@ -14513,7 +14568,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="470" spans="1:22" s="44" customFormat="1">
+    <row r="470" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A470" s="66"/>
       <c r="B470" s="43"/>
       <c r="C470" s="43"/>
@@ -14543,7 +14598,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="471" spans="1:22" s="44" customFormat="1">
+    <row r="471" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A471" s="66"/>
       <c r="B471" s="43"/>
       <c r="C471" s="43"/>
@@ -14573,7 +14628,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="472" spans="1:22" s="44" customFormat="1">
+    <row r="472" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A472" s="66"/>
       <c r="B472" s="43"/>
       <c r="C472" s="43"/>
@@ -14603,7 +14658,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="473" spans="1:22" s="44" customFormat="1">
+    <row r="473" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A473" s="66"/>
       <c r="B473" s="43"/>
       <c r="C473" s="43"/>
@@ -14633,7 +14688,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="474" spans="1:22" s="44" customFormat="1">
+    <row r="474" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="66"/>
       <c r="B474" s="43"/>
       <c r="C474" s="43"/>
@@ -14663,7 +14718,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="475" spans="1:22" s="44" customFormat="1">
+    <row r="475" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="66"/>
       <c r="B475" s="43"/>
       <c r="C475" s="43"/>
@@ -14693,7 +14748,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="476" spans="1:22" s="44" customFormat="1">
+    <row r="476" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="66"/>
       <c r="B476" s="43"/>
       <c r="C476" s="43"/>
@@ -14723,7 +14778,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="477" spans="1:22" s="44" customFormat="1">
+    <row r="477" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="66"/>
       <c r="B477" s="43"/>
       <c r="C477" s="43"/>
@@ -14753,7 +14808,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="478" spans="1:22" s="44" customFormat="1">
+    <row r="478" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="66"/>
       <c r="B478" s="43"/>
       <c r="C478" s="43"/>
@@ -14783,7 +14838,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="479" spans="1:22" s="44" customFormat="1">
+    <row r="479" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="66"/>
       <c r="B479" s="43"/>
       <c r="C479" s="43"/>
@@ -14813,7 +14868,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="480" spans="1:22" s="44" customFormat="1">
+    <row r="480" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="66"/>
       <c r="B480" s="43"/>
       <c r="C480" s="43"/>
@@ -14843,7 +14898,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="481" spans="1:22" s="44" customFormat="1">
+    <row r="481" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="66"/>
       <c r="B481" s="43"/>
       <c r="C481" s="43"/>
@@ -14873,7 +14928,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="482" spans="1:22" s="44" customFormat="1">
+    <row r="482" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A482" s="66"/>
       <c r="B482" s="43"/>
       <c r="C482" s="43"/>
@@ -14903,7 +14958,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="483" spans="1:22" s="44" customFormat="1">
+    <row r="483" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="66"/>
       <c r="B483" s="43"/>
       <c r="C483" s="43"/>
@@ -14933,7 +14988,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="484" spans="1:22" s="44" customFormat="1">
+    <row r="484" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="66"/>
       <c r="B484" s="43"/>
       <c r="C484" s="43"/>
@@ -14963,7 +15018,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="485" spans="1:22" s="44" customFormat="1">
+    <row r="485" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A485" s="66"/>
       <c r="B485" s="43"/>
       <c r="C485" s="43"/>
@@ -14993,7 +15048,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="486" spans="1:22" s="44" customFormat="1">
+    <row r="486" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A486" s="66"/>
       <c r="B486" s="43"/>
       <c r="C486" s="43"/>
@@ -15023,7 +15078,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="487" spans="1:22" s="44" customFormat="1">
+    <row r="487" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A487" s="66"/>
       <c r="B487" s="43"/>
       <c r="C487" s="43"/>
@@ -15053,7 +15108,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="488" spans="1:22" s="44" customFormat="1">
+    <row r="488" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="66"/>
       <c r="B488" s="43"/>
       <c r="C488" s="43"/>
@@ -15083,7 +15138,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="489" spans="1:22" s="44" customFormat="1">
+    <row r="489" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="66"/>
       <c r="B489" s="43"/>
       <c r="C489" s="43"/>
@@ -15113,7 +15168,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="490" spans="1:22" s="44" customFormat="1">
+    <row r="490" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="66"/>
       <c r="B490" s="43"/>
       <c r="C490" s="43"/>
@@ -15143,7 +15198,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="491" spans="1:22" s="44" customFormat="1">
+    <row r="491" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A491" s="66"/>
       <c r="B491" s="43"/>
       <c r="C491" s="43"/>
@@ -15173,7 +15228,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="492" spans="1:22" s="44" customFormat="1">
+    <row r="492" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="66"/>
       <c r="B492" s="43"/>
       <c r="C492" s="43"/>
@@ -15203,7 +15258,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="493" spans="1:22" s="44" customFormat="1">
+    <row r="493" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="66"/>
       <c r="B493" s="43"/>
       <c r="C493" s="43"/>
@@ -15233,7 +15288,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="494" spans="1:22" s="44" customFormat="1">
+    <row r="494" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A494" s="66"/>
       <c r="B494" s="43"/>
       <c r="C494" s="43"/>
@@ -15263,7 +15318,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="495" spans="1:22" s="44" customFormat="1">
+    <row r="495" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A495" s="66"/>
       <c r="B495" s="43"/>
       <c r="C495" s="43"/>
@@ -15293,7 +15348,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="496" spans="1:22" s="44" customFormat="1">
+    <row r="496" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A496" s="66"/>
       <c r="B496" s="43"/>
       <c r="C496" s="43"/>
@@ -15323,7 +15378,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="497" spans="1:22" s="44" customFormat="1">
+    <row r="497" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A497" s="66"/>
       <c r="B497" s="43"/>
       <c r="C497" s="43"/>
@@ -15353,7 +15408,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="498" spans="1:22" s="44" customFormat="1">
+    <row r="498" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A498" s="66"/>
       <c r="B498" s="43"/>
       <c r="C498" s="43"/>
@@ -15383,7 +15438,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="499" spans="1:22" s="44" customFormat="1">
+    <row r="499" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A499" s="66"/>
       <c r="B499" s="43"/>
       <c r="C499" s="43"/>
@@ -15413,7 +15468,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="500" spans="1:22" s="44" customFormat="1">
+    <row r="500" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A500" s="66"/>
       <c r="B500" s="43"/>
       <c r="C500" s="43"/>
@@ -15443,7 +15498,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="501" spans="1:22" s="44" customFormat="1">
+    <row r="501" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A501" s="66"/>
       <c r="B501" s="43"/>
       <c r="C501" s="43"/>
@@ -15473,7 +15528,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="502" spans="1:22" s="44" customFormat="1">
+    <row r="502" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A502" s="66"/>
       <c r="B502" s="43"/>
       <c r="C502" s="43"/>
@@ -15503,7 +15558,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="503" spans="1:22" s="44" customFormat="1">
+    <row r="503" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A503" s="66"/>
       <c r="B503" s="43"/>
       <c r="C503" s="43"/>
@@ -15533,7 +15588,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="504" spans="1:22" s="44" customFormat="1">
+    <row r="504" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A504" s="66"/>
       <c r="B504" s="43"/>
       <c r="C504" s="43"/>
@@ -15563,7 +15618,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="505" spans="1:22" s="44" customFormat="1">
+    <row r="505" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A505" s="66"/>
       <c r="B505" s="43"/>
       <c r="C505" s="43"/>
@@ -15593,7 +15648,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="506" spans="1:22" s="44" customFormat="1">
+    <row r="506" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A506" s="66"/>
       <c r="B506" s="43"/>
       <c r="C506" s="43"/>
@@ -15623,7 +15678,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="507" spans="1:22" s="44" customFormat="1">
+    <row r="507" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A507" s="66"/>
       <c r="B507" s="43"/>
       <c r="C507" s="43"/>
@@ -15653,7 +15708,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="508" spans="1:22" s="44" customFormat="1">
+    <row r="508" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A508" s="66"/>
       <c r="B508" s="43"/>
       <c r="C508" s="43"/>
@@ -15683,7 +15738,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="509" spans="1:22" s="44" customFormat="1">
+    <row r="509" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A509" s="66"/>
       <c r="B509" s="64"/>
       <c r="C509" s="64"/>
@@ -15707,43 +15762,43 @@
       <c r="U509" s="68"/>
       <c r="V509" s="69"/>
     </row>
-    <row r="510" spans="1:22">
+    <row r="510" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U510" s="47"/>
       <c r="V510" s="48"/>
     </row>
-    <row r="511" spans="1:22">
+    <row r="511" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U511" s="47"/>
       <c r="V511" s="48"/>
     </row>
-    <row r="512" spans="1:22">
+    <row r="512" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U512" s="47"/>
       <c r="V512" s="48"/>
     </row>
-    <row r="513" spans="21:22">
+    <row r="513" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U513" s="47"/>
       <c r="V513" s="48"/>
     </row>
-    <row r="514" spans="21:22">
+    <row r="514" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U514" s="47"/>
       <c r="V514" s="48"/>
     </row>
-    <row r="515" spans="21:22">
+    <row r="515" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U515" s="47"/>
       <c r="V515" s="48"/>
     </row>
-    <row r="516" spans="21:22">
+    <row r="516" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U516" s="47"/>
       <c r="V516" s="48"/>
     </row>
-    <row r="517" spans="21:22">
+    <row r="517" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U517" s="47"/>
       <c r="V517" s="48"/>
     </row>
-    <row r="518" spans="21:22">
+    <row r="518" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U518" s="47"/>
       <c r="V518" s="48"/>
     </row>
-    <row r="519" spans="21:22">
+    <row r="519" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U519" s="47"/>
       <c r="V519" s="48"/>
     </row>
@@ -15780,17 +15835,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AH120"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0.85546875" style="17" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="17" customWidth="1"/>
@@ -16370,91 +16425,91 @@
     <col min="16164" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" ht="13.5" thickBot="1"/>
-    <row r="2" spans="2:34" ht="21" thickBot="1">
-      <c r="B2" s="84" t="s">
+    <row r="1" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:34" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="86"/>
-    </row>
-    <row r="3" spans="2:34" ht="15.75">
-      <c r="B3" s="87" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="91"/>
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="91"/>
+      <c r="AH2" s="92"/>
+    </row>
+    <row r="3" spans="2:34" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="88"/>
-      <c r="Z3" s="88"/>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="88"/>
-      <c r="AD3" s="88"/>
-      <c r="AE3" s="88"/>
-      <c r="AF3" s="88"/>
-      <c r="AG3" s="88"/>
-      <c r="AH3" s="88"/>
-    </row>
-    <row r="4" spans="2:34">
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="19">
         <v>1</v>
       </c>
@@ -16574,7 +16629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:34">
+    <row r="5" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
@@ -16609,7 +16664,7 @@
       <c r="AG5" s="21"/>
       <c r="AH5" s="21"/>
     </row>
-    <row r="6" spans="2:34">
+    <row r="6" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B6" s="22" t="s">
         <v>117</v>
       </c>
@@ -16650,7 +16705,7 @@
       <c r="AG6" s="25"/>
       <c r="AH6" s="25"/>
     </row>
-    <row r="7" spans="2:34">
+    <row r="7" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B7" s="25"/>
       <c r="C7" s="27">
         <v>110001</v>
@@ -16689,7 +16744,7 @@
       <c r="AG7" s="25"/>
       <c r="AH7" s="25"/>
     </row>
-    <row r="8" spans="2:34">
+    <row r="8" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B8" s="25"/>
       <c r="C8" s="27">
         <v>110002</v>
@@ -16728,7 +16783,7 @@
       <c r="AG8" s="25"/>
       <c r="AH8" s="25"/>
     </row>
-    <row r="9" spans="2:34">
+    <row r="9" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B9" s="25"/>
       <c r="C9" s="27">
         <v>110003</v>
@@ -16767,7 +16822,7 @@
       <c r="AG9" s="25"/>
       <c r="AH9" s="25"/>
     </row>
-    <row r="10" spans="2:34">
+    <row r="10" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
       <c r="C10" s="27">
         <v>110004</v>
@@ -16806,7 +16861,7 @@
       <c r="AG10" s="25"/>
       <c r="AH10" s="25"/>
     </row>
-    <row r="11" spans="2:34">
+    <row r="11" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B11" s="25"/>
       <c r="C11" s="27">
         <v>110005</v>
@@ -16845,7 +16900,7 @@
       <c r="AG11" s="25"/>
       <c r="AH11" s="25"/>
     </row>
-    <row r="12" spans="2:34">
+    <row r="12" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B12" s="25"/>
       <c r="C12" s="27">
         <v>110006</v>
@@ -16884,7 +16939,7 @@
       <c r="AG12" s="25"/>
       <c r="AH12" s="25"/>
     </row>
-    <row r="13" spans="2:34">
+    <row r="13" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B13" s="25"/>
       <c r="C13" s="27">
         <v>110007</v>
@@ -16923,7 +16978,7 @@
       <c r="AG13" s="25"/>
       <c r="AH13" s="25"/>
     </row>
-    <row r="14" spans="2:34">
+    <row r="14" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B14" s="25"/>
       <c r="C14" s="27">
         <v>110008</v>
@@ -16962,7 +17017,7 @@
       <c r="AG14" s="25"/>
       <c r="AH14" s="25"/>
     </row>
-    <row r="15" spans="2:34">
+    <row r="15" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B15" s="25"/>
       <c r="C15" s="27">
         <v>110009</v>
@@ -17001,7 +17056,7 @@
       <c r="AG15" s="25"/>
       <c r="AH15" s="25"/>
     </row>
-    <row r="16" spans="2:34">
+    <row r="16" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B16" s="25"/>
       <c r="C16" s="28" t="s">
         <v>119</v>
@@ -17040,7 +17095,7 @@
       <c r="AG16" s="25"/>
       <c r="AH16" s="25"/>
     </row>
-    <row r="17" spans="2:34">
+    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B17" s="25"/>
       <c r="C17" s="23">
         <v>120000</v>
@@ -17079,7 +17134,7 @@
       <c r="AG17" s="25"/>
       <c r="AH17" s="25"/>
     </row>
-    <row r="18" spans="2:34">
+    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B18" s="25"/>
       <c r="C18" s="27">
         <v>120001</v>
@@ -17118,7 +17173,7 @@
       <c r="AG18" s="25"/>
       <c r="AH18" s="25"/>
     </row>
-    <row r="19" spans="2:34">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B19" s="25"/>
       <c r="C19" s="27">
         <v>120002</v>
@@ -17157,7 +17212,7 @@
       <c r="AG19" s="25"/>
       <c r="AH19" s="25"/>
     </row>
-    <row r="20" spans="2:34">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B20" s="25"/>
       <c r="C20" s="27">
         <v>120003</v>
@@ -17196,7 +17251,7 @@
       <c r="AG20" s="25"/>
       <c r="AH20" s="25"/>
     </row>
-    <row r="21" spans="2:34">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B21" s="25"/>
       <c r="C21" s="28" t="s">
         <v>120</v>
@@ -17235,7 +17290,7 @@
       <c r="AG21" s="25"/>
       <c r="AH21" s="25"/>
     </row>
-    <row r="22" spans="2:34">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B22" s="25"/>
       <c r="C22" s="23">
         <v>130000</v>
@@ -17274,7 +17329,7 @@
       <c r="AG22" s="25"/>
       <c r="AH22" s="25"/>
     </row>
-    <row r="23" spans="2:34">
+    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B23" s="25"/>
       <c r="C23" s="27">
         <v>130001</v>
@@ -17313,7 +17368,7 @@
       <c r="AG23" s="25"/>
       <c r="AH23" s="25"/>
     </row>
-    <row r="24" spans="2:34">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B24" s="25"/>
       <c r="C24" s="27">
         <v>130002</v>
@@ -17352,7 +17407,7 @@
       <c r="AG24" s="25"/>
       <c r="AH24" s="25"/>
     </row>
-    <row r="25" spans="2:34">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B25" s="25"/>
       <c r="C25" s="27">
         <v>130003</v>
@@ -17391,7 +17446,7 @@
       <c r="AG25" s="25"/>
       <c r="AH25" s="25"/>
     </row>
-    <row r="26" spans="2:34">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B26" s="25"/>
       <c r="C26" s="28" t="s">
         <v>121</v>
@@ -17430,7 +17485,7 @@
       <c r="AG26" s="25"/>
       <c r="AH26" s="25"/>
     </row>
-    <row r="27" spans="2:34">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B27" s="25"/>
       <c r="C27" s="23">
         <v>140000</v>
@@ -17469,7 +17524,7 @@
       <c r="AG27" s="25"/>
       <c r="AH27" s="25"/>
     </row>
-    <row r="28" spans="2:34">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B28" s="25"/>
       <c r="C28" s="28" t="s">
         <v>123</v>
@@ -17508,7 +17563,7 @@
       <c r="AG28" s="25"/>
       <c r="AH28" s="25"/>
     </row>
-    <row r="29" spans="2:34">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B29" s="25"/>
       <c r="C29" s="23">
         <v>150000</v>
@@ -17547,7 +17602,7 @@
       <c r="AG29" s="25"/>
       <c r="AH29" s="25"/>
     </row>
-    <row r="30" spans="2:34">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B30" s="25"/>
       <c r="C30" s="28" t="s">
         <v>124</v>
@@ -17586,7 +17641,7 @@
       <c r="AG30" s="25"/>
       <c r="AH30" s="25"/>
     </row>
-    <row r="31" spans="2:34">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B31" s="25"/>
       <c r="C31" s="23">
         <v>160000</v>
@@ -17625,7 +17680,7 @@
       <c r="AG31" s="25"/>
       <c r="AH31" s="25"/>
     </row>
-    <row r="32" spans="2:34">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B32" s="25"/>
       <c r="C32" s="27">
         <v>160001</v>
@@ -17664,7 +17719,7 @@
       <c r="AG32" s="25"/>
       <c r="AH32" s="25"/>
     </row>
-    <row r="33" spans="2:34">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B33" s="25"/>
       <c r="C33" s="27">
         <v>160002</v>
@@ -17703,7 +17758,7 @@
       <c r="AG33" s="25"/>
       <c r="AH33" s="25"/>
     </row>
-    <row r="34" spans="2:34">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B34" s="25"/>
       <c r="C34" s="27">
         <v>160003</v>
@@ -17742,7 +17797,7 @@
       <c r="AG34" s="25"/>
       <c r="AH34" s="25"/>
     </row>
-    <row r="35" spans="2:34">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B35" s="25"/>
       <c r="C35" s="27">
         <v>160004</v>
@@ -17781,7 +17836,7 @@
       <c r="AG35" s="25"/>
       <c r="AH35" s="25"/>
     </row>
-    <row r="36" spans="2:34">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B36" s="25"/>
       <c r="C36" s="28" t="s">
         <v>126</v>
@@ -17820,7 +17875,7 @@
       <c r="AG36" s="25"/>
       <c r="AH36" s="25"/>
     </row>
-    <row r="37" spans="2:34">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B37" s="25"/>
       <c r="C37" s="23">
         <v>170000</v>
@@ -17859,7 +17914,7 @@
       <c r="AG37" s="25"/>
       <c r="AH37" s="25"/>
     </row>
-    <row r="38" spans="2:34">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B38" s="25"/>
       <c r="C38" s="27">
         <v>170001</v>
@@ -17898,7 +17953,7 @@
       <c r="AG38" s="25"/>
       <c r="AH38" s="25"/>
     </row>
-    <row r="39" spans="2:34">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B39" s="25"/>
       <c r="C39" s="27">
         <v>170002</v>
@@ -17937,7 +17992,7 @@
       <c r="AG39" s="25"/>
       <c r="AH39" s="25"/>
     </row>
-    <row r="40" spans="2:34">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B40" s="25"/>
       <c r="C40" s="27">
         <v>170003</v>
@@ -17976,7 +18031,7 @@
       <c r="AG40" s="25"/>
       <c r="AH40" s="25"/>
     </row>
-    <row r="41" spans="2:34">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B41" s="25"/>
       <c r="C41" s="27">
         <v>170004</v>
@@ -18015,7 +18070,7 @@
       <c r="AG41" s="25"/>
       <c r="AH41" s="25"/>
     </row>
-    <row r="42" spans="2:34">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B42" s="25"/>
       <c r="C42" s="27">
         <v>170005</v>
@@ -18054,7 +18109,7 @@
       <c r="AG42" s="25"/>
       <c r="AH42" s="25"/>
     </row>
-    <row r="43" spans="2:34">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B43" s="25"/>
       <c r="C43" s="27">
         <v>170006</v>
@@ -18093,7 +18148,7 @@
       <c r="AG43" s="25"/>
       <c r="AH43" s="25"/>
     </row>
-    <row r="44" spans="2:34">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B44" s="25"/>
       <c r="C44" s="28" t="s">
         <v>127</v>
@@ -18132,7 +18187,7 @@
       <c r="AG44" s="25"/>
       <c r="AH44" s="25"/>
     </row>
-    <row r="45" spans="2:34">
+    <row r="45" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B45" s="25"/>
       <c r="C45" s="23">
         <v>499999</v>
@@ -18171,7 +18226,7 @@
       <c r="AG45" s="25"/>
       <c r="AH45" s="25"/>
     </row>
-    <row r="46" spans="2:34">
+    <row r="46" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B46" s="20"/>
       <c r="C46" s="29"/>
       <c r="D46" s="24"/>
@@ -18206,7 +18261,7 @@
       <c r="AG46" s="30"/>
       <c r="AH46" s="30"/>
     </row>
-    <row r="47" spans="2:34">
+    <row r="47" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B47" s="22" t="s">
         <v>128</v>
       </c>
@@ -18247,7 +18302,7 @@
       <c r="AG47" s="26"/>
       <c r="AH47" s="26"/>
     </row>
-    <row r="48" spans="2:34">
+    <row r="48" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B48" s="25"/>
       <c r="C48" s="27">
         <v>510001</v>
@@ -18286,7 +18341,7 @@
       <c r="AG48" s="26"/>
       <c r="AH48" s="26"/>
     </row>
-    <row r="49" spans="2:34">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B49" s="25"/>
       <c r="C49" s="27">
         <v>510002</v>
@@ -18325,7 +18380,7 @@
       <c r="AG49" s="26"/>
       <c r="AH49" s="26"/>
     </row>
-    <row r="50" spans="2:34">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B50" s="25"/>
       <c r="C50" s="27">
         <v>510003</v>
@@ -18364,7 +18419,7 @@
       <c r="AG50" s="26"/>
       <c r="AH50" s="26"/>
     </row>
-    <row r="51" spans="2:34">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B51" s="25"/>
       <c r="C51" s="27">
         <v>510004</v>
@@ -18403,7 +18458,7 @@
       <c r="AG51" s="26"/>
       <c r="AH51" s="26"/>
     </row>
-    <row r="52" spans="2:34">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B52" s="25"/>
       <c r="C52" s="27">
         <v>510005</v>
@@ -18442,7 +18497,7 @@
       <c r="AG52" s="26"/>
       <c r="AH52" s="26"/>
     </row>
-    <row r="53" spans="2:34">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B53" s="25"/>
       <c r="C53" s="27">
         <v>510006</v>
@@ -18481,7 +18536,7 @@
       <c r="AG53" s="26"/>
       <c r="AH53" s="26"/>
     </row>
-    <row r="54" spans="2:34">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B54" s="25"/>
       <c r="C54" s="27">
         <v>510007</v>
@@ -18520,7 +18575,7 @@
       <c r="AG54" s="26"/>
       <c r="AH54" s="26"/>
     </row>
-    <row r="55" spans="2:34">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B55" s="25"/>
       <c r="C55" s="28" t="s">
         <v>129</v>
@@ -18559,7 +18614,7 @@
       <c r="AG55" s="26"/>
       <c r="AH55" s="26"/>
     </row>
-    <row r="56" spans="2:34">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B56" s="25"/>
       <c r="C56" s="23">
         <v>520000</v>
@@ -18598,7 +18653,7 @@
       <c r="AG56" s="26"/>
       <c r="AH56" s="26"/>
     </row>
-    <row r="57" spans="2:34">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B57" s="25"/>
       <c r="C57" s="27">
         <v>520001</v>
@@ -18637,7 +18692,7 @@
       <c r="AG57" s="26"/>
       <c r="AH57" s="26"/>
     </row>
-    <row r="58" spans="2:34">
+    <row r="58" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B58" s="25"/>
       <c r="C58" s="27">
         <v>520002</v>
@@ -18676,7 +18731,7 @@
       <c r="AG58" s="26"/>
       <c r="AH58" s="26"/>
     </row>
-    <row r="59" spans="2:34">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B59" s="25"/>
       <c r="C59" s="27">
         <v>520003</v>
@@ -18715,7 +18770,7 @@
       <c r="AG59" s="26"/>
       <c r="AH59" s="26"/>
     </row>
-    <row r="60" spans="2:34">
+    <row r="60" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B60" s="25"/>
       <c r="C60" s="27">
         <v>520004</v>
@@ -18754,7 +18809,7 @@
       <c r="AG60" s="26"/>
       <c r="AH60" s="26"/>
     </row>
-    <row r="61" spans="2:34">
+    <row r="61" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B61" s="25"/>
       <c r="C61" s="27">
         <v>520005</v>
@@ -18793,7 +18848,7 @@
       <c r="AG61" s="26"/>
       <c r="AH61" s="26"/>
     </row>
-    <row r="62" spans="2:34">
+    <row r="62" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B62" s="25"/>
       <c r="C62" s="27">
         <v>520006</v>
@@ -18832,7 +18887,7 @@
       <c r="AG62" s="26"/>
       <c r="AH62" s="26"/>
     </row>
-    <row r="63" spans="2:34">
+    <row r="63" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B63" s="25"/>
       <c r="C63" s="27">
         <v>520007</v>
@@ -18871,7 +18926,7 @@
       <c r="AG63" s="26"/>
       <c r="AH63" s="26"/>
     </row>
-    <row r="64" spans="2:34">
+    <row r="64" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B64" s="25"/>
       <c r="C64" s="27">
         <v>520008</v>
@@ -18910,7 +18965,7 @@
       <c r="AG64" s="26"/>
       <c r="AH64" s="26"/>
     </row>
-    <row r="65" spans="2:34">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B65" s="25"/>
       <c r="C65" s="27">
         <v>520009</v>
@@ -18949,7 +19004,7 @@
       <c r="AG65" s="26"/>
       <c r="AH65" s="26"/>
     </row>
-    <row r="66" spans="2:34" ht="25.5">
+    <row r="66" spans="2:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B66" s="25"/>
       <c r="C66" s="27">
         <v>520010</v>
@@ -18988,7 +19043,7 @@
       <c r="AG66" s="26"/>
       <c r="AH66" s="26"/>
     </row>
-    <row r="67" spans="2:34" ht="25.5">
+    <row r="67" spans="2:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B67" s="25"/>
       <c r="C67" s="27">
         <v>520011</v>
@@ -19027,7 +19082,7 @@
       <c r="AG67" s="26"/>
       <c r="AH67" s="26"/>
     </row>
-    <row r="68" spans="2:34" ht="25.5">
+    <row r="68" spans="2:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B68" s="25"/>
       <c r="C68" s="27">
         <v>520012</v>
@@ -19066,7 +19121,7 @@
       <c r="AG68" s="26"/>
       <c r="AH68" s="26"/>
     </row>
-    <row r="69" spans="2:34" ht="25.5">
+    <row r="69" spans="2:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B69" s="25"/>
       <c r="C69" s="27">
         <v>520013</v>
@@ -19105,7 +19160,7 @@
       <c r="AG69" s="26"/>
       <c r="AH69" s="26"/>
     </row>
-    <row r="70" spans="2:34">
+    <row r="70" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B70" s="25"/>
       <c r="C70" s="27">
         <v>520014</v>
@@ -19144,7 +19199,7 @@
       <c r="AG70" s="26"/>
       <c r="AH70" s="26"/>
     </row>
-    <row r="71" spans="2:34">
+    <row r="71" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B71" s="25"/>
       <c r="C71" s="27">
         <v>520015</v>
@@ -19183,7 +19238,7 @@
       <c r="AG71" s="26"/>
       <c r="AH71" s="26"/>
     </row>
-    <row r="72" spans="2:34">
+    <row r="72" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B72" s="25"/>
       <c r="C72" s="27">
         <v>520016</v>
@@ -19222,7 +19277,7 @@
       <c r="AG72" s="26"/>
       <c r="AH72" s="26"/>
     </row>
-    <row r="73" spans="2:34">
+    <row r="73" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B73" s="25"/>
       <c r="C73" s="27">
         <v>520017</v>
@@ -19261,7 +19316,7 @@
       <c r="AG73" s="26"/>
       <c r="AH73" s="26"/>
     </row>
-    <row r="74" spans="2:34">
+    <row r="74" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B74" s="25"/>
       <c r="C74" s="27">
         <v>520018</v>
@@ -19300,7 +19355,7 @@
       <c r="AG74" s="26"/>
       <c r="AH74" s="26"/>
     </row>
-    <row r="75" spans="2:34">
+    <row r="75" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B75" s="25"/>
       <c r="C75" s="28" t="s">
         <v>141</v>
@@ -19339,7 +19394,7 @@
       <c r="AG75" s="26"/>
       <c r="AH75" s="26"/>
     </row>
-    <row r="76" spans="2:34" ht="25.5">
+    <row r="76" spans="2:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B76" s="25"/>
       <c r="C76" s="23">
         <v>530000</v>
@@ -19378,7 +19433,7 @@
       <c r="AG76" s="26"/>
       <c r="AH76" s="26"/>
     </row>
-    <row r="77" spans="2:34">
+    <row r="77" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B77" s="25"/>
       <c r="C77" s="28" t="s">
         <v>142</v>
@@ -19417,7 +19472,7 @@
       <c r="AG77" s="26"/>
       <c r="AH77" s="26"/>
     </row>
-    <row r="78" spans="2:34" ht="25.5">
+    <row r="78" spans="2:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B78" s="25"/>
       <c r="C78" s="23">
         <v>540000</v>
@@ -19456,7 +19511,7 @@
       <c r="AG78" s="26"/>
       <c r="AH78" s="26"/>
     </row>
-    <row r="79" spans="2:34">
+    <row r="79" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B79" s="25"/>
       <c r="C79" s="28" t="s">
         <v>143</v>
@@ -19495,7 +19550,7 @@
       <c r="AG79" s="26"/>
       <c r="AH79" s="26"/>
     </row>
-    <row r="80" spans="2:34">
+    <row r="80" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B80" s="25"/>
       <c r="C80" s="31">
         <v>550000</v>
@@ -19534,7 +19589,7 @@
       <c r="AG80" s="26"/>
       <c r="AH80" s="26"/>
     </row>
-    <row r="81" spans="2:34">
+    <row r="81" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B81" s="25"/>
       <c r="C81" s="33" t="s">
         <v>144</v>
@@ -19573,7 +19628,7 @@
       <c r="AG81" s="26"/>
       <c r="AH81" s="26"/>
     </row>
-    <row r="82" spans="2:34">
+    <row r="82" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B82" s="25"/>
       <c r="C82" s="23">
         <v>799999</v>
@@ -19612,7 +19667,7 @@
       <c r="AG82" s="26"/>
       <c r="AH82" s="26"/>
     </row>
-    <row r="83" spans="2:34">
+    <row r="83" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B83" s="20"/>
       <c r="C83" s="29"/>
       <c r="D83" s="24"/>
@@ -19647,7 +19702,7 @@
       <c r="AG83" s="30"/>
       <c r="AH83" s="30"/>
     </row>
-    <row r="84" spans="2:34">
+    <row r="84" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B84" s="22" t="s">
         <v>145</v>
       </c>
@@ -19688,7 +19743,7 @@
       <c r="AG84" s="26"/>
       <c r="AH84" s="26"/>
     </row>
-    <row r="85" spans="2:34">
+    <row r="85" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B85" s="34"/>
       <c r="C85" s="23">
         <v>810001</v>
@@ -19727,7 +19782,7 @@
       <c r="AG85" s="26"/>
       <c r="AH85" s="26"/>
     </row>
-    <row r="86" spans="2:34">
+    <row r="86" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B86" s="34"/>
       <c r="C86" s="23">
         <v>810002</v>
@@ -19766,7 +19821,7 @@
       <c r="AG86" s="26"/>
       <c r="AH86" s="26"/>
     </row>
-    <row r="87" spans="2:34" ht="25.5">
+    <row r="87" spans="2:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B87" s="34"/>
       <c r="C87" s="23">
         <v>810003</v>
@@ -19805,7 +19860,7 @@
       <c r="AG87" s="26"/>
       <c r="AH87" s="26"/>
     </row>
-    <row r="88" spans="2:34">
+    <row r="88" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B88" s="34"/>
       <c r="C88" s="23">
         <v>810004</v>
@@ -19844,7 +19899,7 @@
       <c r="AG88" s="26"/>
       <c r="AH88" s="26"/>
     </row>
-    <row r="89" spans="2:34">
+    <row r="89" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B89" s="34"/>
       <c r="C89" s="23">
         <v>810005</v>
@@ -19883,7 +19938,7 @@
       <c r="AG89" s="26"/>
       <c r="AH89" s="26"/>
     </row>
-    <row r="90" spans="2:34">
+    <row r="90" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B90" s="34"/>
       <c r="C90" s="23">
         <v>810006</v>
@@ -19922,7 +19977,7 @@
       <c r="AG90" s="26"/>
       <c r="AH90" s="26"/>
     </row>
-    <row r="91" spans="2:34">
+    <row r="91" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B91" s="34"/>
       <c r="C91" s="23">
         <v>810007</v>
@@ -19961,7 +20016,7 @@
       <c r="AG91" s="26"/>
       <c r="AH91" s="26"/>
     </row>
-    <row r="92" spans="2:34">
+    <row r="92" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B92" s="34"/>
       <c r="C92" s="23">
         <v>810008</v>
@@ -20000,7 +20055,7 @@
       <c r="AG92" s="26"/>
       <c r="AH92" s="26"/>
     </row>
-    <row r="93" spans="2:34">
+    <row r="93" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B93" s="34"/>
       <c r="C93" s="23">
         <v>810009</v>
@@ -20039,7 +20094,7 @@
       <c r="AG93" s="26"/>
       <c r="AH93" s="26"/>
     </row>
-    <row r="94" spans="2:34" ht="25.5">
+    <row r="94" spans="2:34" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B94" s="34"/>
       <c r="C94" s="23">
         <v>810010</v>
@@ -20078,7 +20133,7 @@
       <c r="AG94" s="26"/>
       <c r="AH94" s="26"/>
     </row>
-    <row r="95" spans="2:34">
+    <row r="95" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B95" s="34"/>
       <c r="C95" s="23">
         <v>820000</v>
@@ -20117,7 +20172,7 @@
       <c r="AG95" s="26"/>
       <c r="AH95" s="26"/>
     </row>
-    <row r="96" spans="2:34">
+    <row r="96" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B96" s="34"/>
       <c r="C96" s="28" t="s">
         <v>146</v>
@@ -20156,7 +20211,7 @@
       <c r="AG96" s="26"/>
       <c r="AH96" s="26"/>
     </row>
-    <row r="97" spans="2:34">
+    <row r="97" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
       <c r="D97" s="21"/>
@@ -20191,12 +20246,12 @@
       <c r="AG97" s="30"/>
       <c r="AH97" s="30"/>
     </row>
-    <row r="100" spans="2:34">
-      <c r="B100" s="89" t="s">
+    <row r="100" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B100" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="C100" s="90"/>
-      <c r="D100" s="91"/>
+      <c r="C100" s="96"/>
+      <c r="D100" s="97"/>
       <c r="E100" s="35"/>
       <c r="F100" s="35"/>
       <c r="H100" s="35"/>
@@ -20227,12 +20282,12 @@
       <c r="AG100" s="35"/>
       <c r="AH100" s="35"/>
     </row>
-    <row r="101" spans="2:34">
-      <c r="B101" s="78" t="s">
+    <row r="101" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B101" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="C101" s="79"/>
-      <c r="D101" s="80"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="86"/>
       <c r="E101" s="35"/>
       <c r="F101" s="35"/>
       <c r="H101" s="35"/>
@@ -20263,12 +20318,12 @@
       <c r="AG101" s="35"/>
       <c r="AH101" s="35"/>
     </row>
-    <row r="102" spans="2:34">
-      <c r="B102" s="78" t="s">
+    <row r="102" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B102" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="C102" s="79"/>
-      <c r="D102" s="80"/>
+      <c r="C102" s="85"/>
+      <c r="D102" s="86"/>
       <c r="E102" s="35"/>
       <c r="F102" s="35"/>
       <c r="H102" s="35"/>
@@ -20299,12 +20354,12 @@
       <c r="AG102" s="35"/>
       <c r="AH102" s="35"/>
     </row>
-    <row r="103" spans="2:34">
-      <c r="B103" s="78" t="s">
+    <row r="103" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B103" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="C103" s="79"/>
-      <c r="D103" s="80"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="86"/>
       <c r="E103" s="35"/>
       <c r="F103" s="35"/>
       <c r="H103" s="35"/>
@@ -20335,7 +20390,7 @@
       <c r="AG103" s="35"/>
       <c r="AH103" s="35"/>
     </row>
-    <row r="104" spans="2:34">
+    <row r="104" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B104" s="36" t="s">
         <v>151</v>
       </c>
@@ -20346,7 +20401,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="2:34" s="39" customFormat="1" ht="25.5">
+    <row r="105" spans="2:34" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B105" s="37" t="s">
         <v>154</v>
       </c>
@@ -20358,7 +20413,7 @@
       </c>
       <c r="G105" s="17"/>
     </row>
-    <row r="106" spans="2:34" s="39" customFormat="1">
+    <row r="106" spans="2:34" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="37" t="s">
         <v>76</v>
       </c>
@@ -20372,7 +20427,7 @@
       </c>
       <c r="G106" s="17"/>
     </row>
-    <row r="107" spans="2:34" s="39" customFormat="1">
+    <row r="107" spans="2:34" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="37" t="s">
         <v>15</v>
       </c>
@@ -20386,7 +20441,7 @@
       </c>
       <c r="G107" s="17"/>
     </row>
-    <row r="108" spans="2:34" s="39" customFormat="1" ht="25.5">
+    <row r="108" spans="2:34" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B108" s="37" t="s">
         <v>77</v>
       </c>
@@ -20400,7 +20455,7 @@
       </c>
       <c r="G108" s="17"/>
     </row>
-    <row r="109" spans="2:34" s="39" customFormat="1">
+    <row r="109" spans="2:34" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="37" t="s">
         <v>79</v>
       </c>
@@ -20414,7 +20469,7 @@
       </c>
       <c r="G109" s="17"/>
     </row>
-    <row r="110" spans="2:34" s="39" customFormat="1">
+    <row r="110" spans="2:34" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="37" t="s">
         <v>54</v>
       </c>
@@ -20428,7 +20483,7 @@
       </c>
       <c r="G110" s="17"/>
     </row>
-    <row r="111" spans="2:34" s="39" customFormat="1">
+    <row r="111" spans="2:34" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="37" t="s">
         <v>155</v>
       </c>
@@ -20442,7 +20497,7 @@
       </c>
       <c r="G111" s="17"/>
     </row>
-    <row r="112" spans="2:34" s="39" customFormat="1">
+    <row r="112" spans="2:34" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="37" t="s">
         <v>156</v>
       </c>
@@ -20456,7 +20511,7 @@
       </c>
       <c r="G112" s="17"/>
     </row>
-    <row r="113" spans="2:7" s="39" customFormat="1" ht="25.5">
+    <row r="113" spans="2:7" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B113" s="37" t="s">
         <v>157</v>
       </c>
@@ -20470,7 +20525,7 @@
       </c>
       <c r="G113" s="17"/>
     </row>
-    <row r="114" spans="2:7" s="39" customFormat="1">
+    <row r="114" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="41" t="s">
         <v>158</v>
       </c>
@@ -20484,7 +20539,7 @@
       </c>
       <c r="G114" s="17"/>
     </row>
-    <row r="115" spans="2:7" s="39" customFormat="1">
+    <row r="115" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="37" t="s">
         <v>159</v>
       </c>
@@ -20498,7 +20553,7 @@
       </c>
       <c r="G115" s="17"/>
     </row>
-    <row r="116" spans="2:7" s="39" customFormat="1">
+    <row r="116" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="41" t="s">
         <v>160</v>
       </c>
@@ -20512,7 +20567,7 @@
       </c>
       <c r="G116" s="17"/>
     </row>
-    <row r="117" spans="2:7" s="39" customFormat="1">
+    <row r="117" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="41" t="s">
         <v>160</v>
       </c>
@@ -20526,7 +20581,7 @@
       </c>
       <c r="G117" s="17"/>
     </row>
-    <row r="118" spans="2:7" s="39" customFormat="1">
+    <row r="118" spans="2:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="41" t="s">
         <v>160</v>
       </c>
@@ -20540,7 +20595,7 @@
       </c>
       <c r="G118" s="17"/>
     </row>
-    <row r="119" spans="2:7" s="39" customFormat="1" ht="13.5" thickBot="1">
+    <row r="119" spans="2:7" s="39" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B119" s="42" t="s">
         <v>160</v>
       </c>
@@ -20554,12 +20609,12 @@
       </c>
       <c r="G119" s="17"/>
     </row>
-    <row r="120" spans="2:7" ht="13.5" thickBot="1">
-      <c r="B120" s="81" t="s">
+    <row r="120" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C120" s="82"/>
-      <c r="D120" s="83"/>
+      <c r="C120" s="88"/>
+      <c r="D120" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -20590,17 +20645,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
@@ -21244,19 +21299,19 @@
     <col min="16139" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="6" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:8" ht="30" customHeight="1" thickBot="1">
-      <c r="B2" s="92" t="s">
+    <row r="1" spans="2:8" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-    </row>
-    <row r="3" spans="2:8" ht="30" customHeight="1">
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="100"/>
+    </row>
+    <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>86</v>
       </c>
@@ -21279,7 +21334,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="4.5" customHeight="1">
+    <row r="4" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -21288,7 +21343,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -21310,7 +21365,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <f t="shared" ref="B6:B28" si="0">B5+1</f>
         <v>2</v>
@@ -21334,7 +21389,7 @@
       </c>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -21358,7 +21413,7 @@
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="2:8" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:8" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <f>B7+1</f>
         <v>4</v>
@@ -21384,7 +21439,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <f>B8+1</f>
         <v>5</v>
@@ -21410,7 +21465,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -21436,7 +21491,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -21462,7 +21517,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -21488,7 +21543,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -21514,7 +21569,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -21540,7 +21595,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -21566,7 +21621,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -21592,7 +21647,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -21618,7 +21673,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -21644,7 +21699,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -21668,7 +21723,7 @@
       </c>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -21694,7 +21749,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -21718,7 +21773,7 @@
       </c>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -21744,7 +21799,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -21768,7 +21823,7 @@
       </c>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -21794,7 +21849,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <f>B24+1</f>
         <v>21</v>
@@ -21820,7 +21875,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <f>B25+1</f>
         <v>22</v>
@@ -21844,7 +21899,7 @@
       </c>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -21870,7 +21925,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="2:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -21894,7 +21949,7 @@
       </c>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="2:8" ht="4.5" customHeight="1">
+    <row r="29" spans="2:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
